--- a/reporte_avance.xlsx
+++ b/reporte_avance.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>45fd896</t>
+          <t>c95656c</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Merge pull request #8 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
+          <t>añadir anular Cotizacion en cuentas Sin Factura</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ff5c859</t>
+          <t>9763c03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[•] agregar marge adevelop</t>
+          <t>registrar precio sugerido que afecte a todos los almacenes, actulizar tabla compra al registrar automaticamente filtrar del almacen registrodo,visualizar la factura despues de registrar en factura , factura exportacion , factura alquiler, bug mostrar reporte pdf de compras por almacen</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5d0f3c8</t>
+          <t>44260ca</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[•] Se añadio punto de venta a cotizaion y se muestra en los reportes tanto de venta y cotizacion</t>
+          <t>se normalizo useCotizacion que se trajabaron de prueba respuesta de emizor por defecto se quito se añadio el simbolo de moneda en reporte ventas hoy, se añadio eniviar por correo el comprobante o la factura de impuesto tambien al facturar una cotizacion se podra ver la factura despues, se mejoro el reporte para que un link de un pdf sea enviado por correo</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15d5fd2</t>
+          <t>6590116</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[♦] PENDIENTE: SE AGREGO PUNTO DE VENTA A LOS REPORTES DE VENTAY SE REGISTRA EL PUNTO DE VENTA EN CADA COTIZACION Y SE ESTA VIENDO COLOCAR EL PUNTO DE VENTA EN LOS REPOSRTE Y FALTA REGISTRO DE ALMACEN</t>
+          <t>Arreglar cosigo sin producto, cotizacion facurar de normal y preferencial cambios de estado 2 facturado y no se puede facturar 2 veces</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>da93671</t>
+          <t>b8cc5cb</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Merge pull request #5 from aycaRichard12/Feacture-Cotizacion_Detalle_Adicional_Cotizacion</t>
+          <t>en App se quito la comparacion du usuario</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0b50aa7</t>
+          <t>25a40d2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[•] GOOD: se añadio descripcion adicional a cotizacion preferencial o normal en carrito para especificar los servicios tambien se añadio numero factura o ducumento a cotizaion tambien se muestra en los reportes dichos cambios</t>
+          <t>Cambios Factura Exportacion add tipo cambio dinamico</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>feb7ab7</t>
+          <t>63d4433</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Merge pull request #3 from aycaRichard12/Feacture-Detalle_Venta_Cotizacion</t>
+          <t>cotizacion facturar cotizacion Normal , arreglo facturacion Comercializacion</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0225d73</t>
+          <t>c07fefa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[•] Se agrego descripcion adicional en carrito fenta finalizado</t>
+          <t>comando por voz, correcciones comercial interfaz , se añadio filtro excel en almacen</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>89d2b1b</t>
+          <t>c81402a</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[•] Se añadio descripcion adicional en carrito ventas debajo de descripcion del producto</t>
+          <t>Se arreglo cambio de estado merma</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2caed0c</t>
+          <t>3004e31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[◘] DEJAR DE RASTREAR .ENV EN DEVELOP</t>
+          <t>Se arreglo cambio de estado robo</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>a70e993</t>
+          <t>2472148</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[♦♦] CONFIG: gitignore</t>
+          <t>[•] Añadir cambios anulacion cotizacion, pdf con sangria Anulado, fitrado tabla similar excel</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ac09b1b</t>
+          <t>3c3f990</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Merge branch 'main' into develop</t>
+          <t>Se Actualizo bugs de errores de cotizacion como por ejemplo estado solo hay dos 0 y 1 que significa NORMAL y PREFERENCIAL y se añadio en la base de datos una columna condicion para ver si esta activa o anulada la cotizacion se realizo las pruebas respectivas, se separo la logica en 2 variables estado y condicion</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8c87406</t>
+          <t>be62e5c</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Merge pull request #1 from aycaRichard12/Feacture-kardex</t>
+          <t>Merge pull request #17 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40d7dc7</t>
+          <t>5a0ab7a</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture-kardex</t>
+          <t>[•] ANULAR COTIZACION DE COMERCIAL, MOSTRAR EN PDF ESPECIFICAMENTE EL DOCUMENTO ANULADO LA SANGRIA</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8627407</t>
+          <t>e40fe0e</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[•] Completado editar saldos eliminar y modal desplegable de los saldos de un producto seleccionado</t>
+          <t>Merge pull request #15 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2578a08</t>
+          <t>e5209e4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>[•] Añadir la opcion de que sea opcional el especificar el lote de la compra al registrar ROBOS y MERMAS</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>92c2751</t>
+          <t>1175a19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+          <t>Merge pull request #14 from aycaRichard12/Feacture-Correcciones</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>af8a9eb</t>
+          <t>bdef3d7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[•] Iyeccion mistersoft esta fallando venta</t>
+          <t>[•] botones asignar almacen alineados en fila</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bd7bea8</t>
+          <t>4c4c7c6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[♦] Imcompleto cardex para mostrar detalle de saldo final</t>
+          <t>[•] Crear titulos para asignar almacen asignar punto de venta y asignar productos</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>d331fac</t>
+          <t>5aac9fd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[♦] PENDIENTE KARDEX: se logro obtener el precio unitario de cada compra y su respectivo movimiento los negativos son salidas y los positivos son movimientos</t>
+          <t>[•] Colocar Iconos a paginas de pedidos</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0a097e1</t>
+          <t>f45fc46</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>[•] Etiquetas a botones de MOvimientos cambiar icon de carrito</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7a5032d</t>
+          <t>d87b7cf</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[♦] IMCOMPLETO: NO SE TERMINO KARDEX</t>
+          <t>[•] Movimientos muestra de forma ordenada columna N°</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>85ed0f8</t>
+          <t>d661372</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>[•] Finalizacion obtener token del emizor para la venta out</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1531505</t>
+          <t>3b28f38</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>[•] registrar venta por una ruta diferente en php out/venta metodo POST simplificar endpoint venta para la pagina web ya se hizo la prueba</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5b580ba</t>
+          <t>dd75382</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+          <t>[•] ACTUALIZAR apis exteriores para comercial y que funciones bien</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9f1a936</t>
+          <t>1dbbaed</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+          <t>Merge pull request #10 from aycaRichard12/Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6faad43</t>
+          <t>b182dc3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+          <t>[•] Finalizacion de kardex entrara a rebicion: se modifico el metodo PROMEDIO para hacer las calculos respectivos se arreglo el bug de los reposrtes en pdf</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bad185c</t>
+          <t>07716be</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>e285b72</t>
+          <t>3ac0785</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>[] PEPS KARDEX SE AÑADIO FORMA DE VER LOS SALDOS PENDIENTES EN LA TABLA PARA PODER IMPRIMIR</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9aeafda</t>
+          <t>62a20fb</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+          <t>[󐊮] INSERTAR: SE INSERTO A COTIZACION PODER LISTAR PUNTOS DE VENTAS SIN CODIGOSIN PARA LOS COMPROBANTES</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7790afb</t>
+          <t>10018ef</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+          <t>[󐊮] UPDATE KARDEX : se mejoro la consulta a la base de datos y en la api se añadio en el metodo pepes como obtener los precios unitarios y tambien las ventas divididas con diferentes precios por cliente ahora nos toca trabajar en frontend para filtrar de la fecha inicial a la fecha final</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>613a00f</t>
+          <t>87eb59c</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[NULL] PENDIENTE KARDEX : solo se quedo en obtner precios de las compras nos falta obtener UEPS PEPS Promedio</t>
+          <t>[󐊮] BUG:no registraba ventas errores que salia es que el ticketFactura ya se habia registrado : error la venta prueba se registraba en impuestos pero no se registraba en mistersoft solucion : se clono ventas para simular que se registraron , se agrego trasabilidad de los extrabios y se registrar el origen en el stock que seria de la compra</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4ce76ff</t>
+          <t>429f7b1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo marge automatico</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>332f720</t>
+          <t>79ec238</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>28d88a6</t>
+          <t>be2eeca</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[■] MOD : routes no mostrar rutas solo el link de version</t>
+          <t>[񯢔] CAMBIO EN MAIN BAJARSE EN CADA REPOSITORIO : Se añadio el modal para registrar el punto de vent</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>d5a9711</t>
+          <t>f6fb50b</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+          <t>[♦] se añadio trasabilidad en los movimientos de los productos esta en revision si funciona o hay conflicto con otras funciones</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7d8f950</t>
+          <t>66c4346</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+          <t>Merge pull request #9 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>b51fb3d</t>
+          <t>4dcd9af</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+          <t>[•] funciones para sacar reportes de los commits</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>d8a4322</t>
+          <t>45fd896</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+          <t>Merge pull request #8 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8262c38</t>
+          <t>ff5c859</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+          <t>[•] agregar marge adevelop</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>cf100a2</t>
+          <t>76114b3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[◼︎] MOD: USUARIO DE PRUEBAS</t>
+          <t>Merge pull request #7 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>b5f2ef7</t>
+          <t>5d0f3c8</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1523,12 +1523,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MOD: arreglar routes</t>
+          <t>[•] Se añadio punto de venta a cotizaion y se muestra en los reportes tanto de venta y cotizacion</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3be4789</t>
+          <t>15d5fd2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+          <t>[♦] PENDIENTE: SE AGREGO PUNTO DE VENTA A LOS REPORTES DE VENTAY SE REGISTRA EL PUNTO DE VENTA EN CADA COTIZACION Y SE ESTA VIENDO COLOCAR EL PUNTO DE VENTA EN LOS REPOSRTE Y FALTA REGISTRO DE ALMACEN</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5a87c4c</t>
+          <t>36e9e6d</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1573,12 +1573,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MOD: arreglar routes</t>
+          <t>Merge pull request #6 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>fef5258</t>
+          <t>da93671</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+          <t>Merge pull request #5 from aycaRichard12/Feacture-Cotizacion_Detalle_Adicional_Cotizacion</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>fd450ca</t>
+          <t>0b50aa7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>eliminar de routes inventarios kardexPage</t>
+          <t>[•] GOOD: se añadio descripcion adicional a cotizacion preferencial o normal en carrito para especificar los servicios tambien se añadio numero factura o ducumento a cotizaion tambien se muestra en los reportes dichos cambios</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>991ae7c</t>
+          <t>d5cf671</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>eliminar de routes inventarios kardexPage</t>
+          <t>Merge pull request #4 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>67469e9</t>
+          <t>feb7ab7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+          <t>Merge pull request #3 from aycaRichard12/Feacture-Detalle_Venta_Cotizacion</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4afec30</t>
+          <t>0225d73</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[■] MOD .env para develop</t>
+          <t>[•] Se agrego descripcion adicional en carrito fenta finalizado</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>a5e2ba8</t>
+          <t>89d2b1b</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+          <t>[•] Se añadio descripcion adicional en carrito ventas debajo de descripcion del producto</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>51f047d</t>
+          <t>2caed0c</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+          <t>[◘] DEJAR DE RASTREAR .ENV EN DEVELOP</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bef63cc</t>
+          <t>21063fe</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1773,12 +1773,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+          <t>[◘] DEJAR DE RASTREAR EL .ENV</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0d3e4c2</t>
+          <t>3f1f7ca</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[■] configuracion develop terminada - estructura usuarios de pruebas - quasar config</t>
+          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>b14e001</t>
+          <t>a70e993</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1823,12 +1823,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>cambio axios + .nev para produccion, mod services con .env, mod usuarios para pruebas locales y produccion, mod credeciales usuarios para inicialisar en desarrollo no afecta a produccion</t>
+          <t>[♦♦] CONFIG: gitignore</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>99c04fd</t>
+          <t>3b8119a</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>cambios .env si se subira al git no se ignorara</t>
+          <t>Merge pull request #2 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>91897d7</t>
+          <t>ac09b1b</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>configuraicion develop .env, configuracion axios api, confg de services apis externas -&gt; servidor de prueva para hacer lo minimos cambios</t>
+          <t>Merge branch 'main' into develop</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>67b9aa5</t>
+          <t>8c87406</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>hacer cambios reporte cuentas por cobrar al generar reporte scroll se posiciona en tabla, añadir kardex a select reportes comiezo de git con ramas</t>
+          <t>Merge pull request #1 from aycaRichard12/Feacture-kardex</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>62dbbab</t>
+          <t>40d7dc7</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>correcciones comercial</t>
+          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture-kardex</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3e0caaa</t>
+          <t>8627407</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>cambios comercial -NO SE TERMINO COMERCIAL- -se hizo cambios menus falta terminar reportes-</t>
+          <t>[•] Completado editar saldos eliminar y modal desplegable de los saldos de un producto seleccionado</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3a1565d</t>
+          <t>b1c23da</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1973,12 +1973,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>desarrollo ota deito credito</t>
+          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>412b529</t>
+          <t>2578a08</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Commmit : Solucion de Error Devolucion Venta / mejora de reportes de Venta Gris</t>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7cd7d32</t>
+          <t>92c2751</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Api Compra Out y Diseño Estructura Guias Interfaz Quasar y Dirver</t>
+          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>a449083</t>
+          <t>af8a9eb</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Api out ventas finalzida con los parametros optimizados</t>
+          <t>[•] Iyeccion mistersoft esta fallando venta</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>b451274</t>
+          <t>bd7bea8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>compra creditos</t>
+          <t>[♦] Imcompleto cardex para mostrar detalle de saldo final</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>dd40fa0</t>
+          <t>d331fac</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>m:correcciones comercial</t>
+          <t>[♦] PENDIENTE KARDEX: se logro obtener el precio unitario de cada compra y su respectivo movimiento los negativos son salidas y los positivos son movimientos</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>da37a18</t>
+          <t>0a097e1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Cambios Sistema correcciones primera interacion</t>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>f5c4d75</t>
+          <t>7a5032d</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cambios interfaz</t>
+          <t>[♦] IMCOMPLETO: NO SE TERMINO KARDEX</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>283842d</t>
+          <t>85ed0f8</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Eliminar vendor del repo y agregarlo al .gitignore</t>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3501c4e</t>
+          <t>1531505</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>first commit</t>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
         </is>
       </c>
     </row>
@@ -2213,20 +2213,1145 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>5b580ba</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>9f1a936</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>6faad43</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>bad185c</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>e285b72</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>9aeafda</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>7790afb</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>613a00f</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[NULL] PENDIENTE KARDEX : solo se quedo en obtner precios de las compras nos falta obtener UEPS PEPS Promedio</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>4ce76ff</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>332f720</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>28d88a6</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[■] MOD : routes no mostrar rutas solo el link de version</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>d5a9711</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>7d8f950</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>b51fb3d</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>d8a4322</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>8262c38</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cf100a2</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[◼︎] MOD: USUARIO DE PRUEBAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>b5f2ef7</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MOD: arreglar routes</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>3be4789</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>5a87c4c</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MOD: arreglar routes</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>fef5258</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>fd450ca</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>eliminar de routes inventarios kardexPage</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>991ae7c</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>eliminar de routes inventarios kardexPage</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>67469e9</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>4afec30</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[■] MOD .env para develop</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>a5e2ba8</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>51f047d</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>bef63cc</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0d3e4c2</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[■] configuracion develop terminada - estructura usuarios de pruebas - quasar config</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>b14e001</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>cambio axios + .nev para produccion, mod services con .env, mod usuarios para pruebas locales y produccion, mod credeciales usuarios para inicialisar en desarrollo no afecta a produccion</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>99c04fd</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>cambios .env si se subira al git no se ignorara</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>91897d7</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>configuraicion develop .env, configuracion axios api, confg de services apis externas -&gt; servidor de prueva para hacer lo minimos cambios</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>67b9aa5</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>hacer cambios reporte cuentas por cobrar al generar reporte scroll se posiciona en tabla, añadir kardex a select reportes comiezo de git con ramas</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>62dbbab</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>correcciones comercial</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>3e0caaa</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>cambios comercial -NO SE TERMINO COMERCIAL- -se hizo cambios menus falta terminar reportes-</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>3a1565d</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>desarrollo ota deito credito</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>412b529</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Commmit : Solucion de Error Devolucion Venta / mejora de reportes de Venta Gris</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>7cd7d32</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Api Compra Out y Diseño Estructura Guias Interfaz Quasar y Dirver</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>a449083</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Api out ventas finalzida con los parametros optimizados</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>b451274</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>compra creditos</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>dd40fa0</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>m:correcciones comercial</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>da37a18</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Cambios Sistema correcciones primera interacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>f5c4d75</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Cambios interfaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>283842d</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Eliminar vendor del repo y agregarlo al .gitignore</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>3501c4e</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>first commit</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>9409db8</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Ricahrd Ayca</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>Initialize the project 🚀</t>
         </is>

--- a/reporte_avance.xlsx
+++ b/reporte_avance.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>c95656c</t>
+          <t>6a0b405</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>añadir anular Cotizacion en cuentas Sin Factura</t>
+          <t>docs(partial-merge): como traer solo commits especificos de otro repositorio</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9763c03</t>
+          <t>806d175</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>registrar precio sugerido que afecte a todos los almacenes, actulizar tabla compra al registrar automaticamente filtrar del almacen registrodo,visualizar la factura despues de registrar en factura , factura exportacion , factura alquiler, bug mostrar reporte pdf de compras por almacen</t>
+          <t>build(commitizen): herramienta que ayuda a estandarizar los mensajes de commits en git</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>44260ca</t>
+          <t>8f99a94</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>se normalizo useCotizacion que se trajabaron de prueba respuesta de emizor por defecto se quito se añadio el simbolo de moneda en reporte ventas hoy, se añadio eniviar por correo el comprobante o la factura de impuesto tambien al facturar una cotizacion se podra ver la factura despues, se mejoro el reporte para que un link de un pdf sea enviado por correo</t>
+          <t>docs(git-commits): guia de commits Profecionales Estructura recomendables en md</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6590116</t>
+          <t>efc80fc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Arreglar cosigo sin producto, cotizacion facurar de normal y preferencial cambios de estado 2 facturado y no se puede facturar 2 veces</t>
+          <t>docs(git-remotes) documentacion git agregar repositorios remotos al repositorio principal</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>b8cc5cb</t>
+          <t>143732c</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>en App se quito la comparacion du usuario</t>
+          <t>fix(responsable-almacen) retornar Almacenes activos asignado y activos e inactivos : se corrigio el use store por que solo se listaba activos e inactivos , se ejecuta otro enpoint para retornar las dos listas sindo uno para nuevos registro como ventas solo los activos, la otra lista es mas para los reportes si antes estuvo activo pero se inavilito sus reportes son necesarios aunque ya esten inactivos</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25a40d2</t>
+          <t>b60d003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cambios Factura Exportacion add tipo cambio dinamico</t>
+          <t>chore(routes): Configuracion rutas el historial del router segun entorno (SRC/SPA) Y modo (history / hash)</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>63d4433</t>
+          <t>ad36443</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>cotizacion facturar cotizacion Normal , arreglo facturacion Comercializacion</t>
+          <t>Se mejoro la funcion UseAlmacenStore para devolver las dos respuesta de dos empoints que son endpoint1 = listaResponsableAlmacenReportes/ endpoint2 = listaResponsableAlmacen/</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>c07fefa</t>
+          <t>8b9182f</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>comando por voz, correcciones comercial interfaz , se añadio filtro excel en almacen</t>
+          <t>finalizar filtrado Cuentas por cobrar con filtrado individual por columna con condicionales</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>c81402a</t>
+          <t>c9fa064</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Se arreglo cambio de estado merma</t>
+          <t>Registrar Credito Cotizacion, tabla armar qr en la tabla</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3004e31</t>
+          <t>a49df34</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Se arreglo cambio de estado robo</t>
+          <t>Cambiar Registrar Categoria Precio a submenu Creacion</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2472148</t>
+          <t>66aafa6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[•] Añadir cambios anulacion cotizacion, pdf con sangria Anulado, fitrado tabla similar excel</t>
+          <t>Asignar Categoria Precio a almacen, agregar credito Cotizacion</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3c3f990</t>
+          <t>4eae866</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Se Actualizo bugs de errores de cotizacion como por ejemplo estado solo hay dos 0 y 1 que significa NORMAL y PREFERENCIAL y se añadio en la base de datos una columna condicion para ver si esta activa o anulada la cotizacion se realizo las pruebas respectivas, se separo la logica en 2 variables estado y condicion</t>
+          <t>Arreglar Facturacion descuentos, Reportes estilo Excel mejorar los get columnas</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>be62e5c</t>
+          <t>2bec562</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Merge pull request #17 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
+          <t>Filtracion implementado en reportes gestion Ventas, Gestion Cotizacion</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5a0ab7a</t>
+          <t>f5be112</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[•] ANULAR COTIZACION DE COMERCIAL, MOSTRAR EN PDF ESPECIFICAMENTE EL DOCUMENTO ANULADO LA SANGRIA</t>
+          <t>Se arreglo el filtrado de los almacenes y se implemento para filtrado general</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>e40fe0e</t>
+          <t>75a8bec</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Merge pull request #15 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>e5209e4</t>
+          <t>16f3326</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[•] Añadir la opcion de que sea opcional el especificar el lote de la compra al registrar ROBOS y MERMAS</t>
+          <t>Merge pull request #36 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1175a19</t>
+          <t>b9ab466</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Merge pull request #14 from aycaRichard12/Feacture-Correcciones</t>
+          <t>listar almacenes activos al hacer una transaccion en compra, venta, cotizacion, merma, extrabio pero en reportes mostrar todos los almacenes, mostrar en detalle compra al añadir un producto al carrito su medida, correcciones comercial en general</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bdef3d7</t>
+          <t>ebb7cf7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[•] botones asignar almacen alineados en fila</t>
+          <t>Se agrego la funcion de cerrar los reportes PDFs con ECS</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4c4c7c6</t>
+          <t>227f72c</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[•] Crear titulos para asignar almacen asignar punto de venta y asignar productos</t>
+          <t>Anular out Factura</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5aac9fd</t>
+          <t>0f88213</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[•] Colocar Iconos a paginas de pedidos</t>
+          <t>Merge pull request #35 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>f45fc46</t>
+          <t>3318ec5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[•] Etiquetas a botones de MOvimientos cambiar icon de carrito</t>
+          <t>SE QUITO LA VALIDACION DE FACTUA SIN, SE REIMPLANTARA POSTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>d87b7cf</t>
+          <t>9b469e9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[•] Movimientos muestra de forma ordenada columna N°</t>
+          <t>Merge pull request #34 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>d661372</t>
+          <t>ed0f4b0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[•] Finalizacion obtener token del emizor para la venta out</t>
+          <t>desarrollo de devolucion de venta</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3b28f38</t>
+          <t>7e0f433</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[•] registrar venta por una ruta diferente en php out/venta metodo POST simplificar endpoint venta para la pagina web ya se hizo la prueba</t>
+          <t>Merge pull request #33 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dd75382</t>
+          <t>c9a2aef</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[•] ACTUALIZAR apis exteriores para comercial y que funciones bien</t>
+          <t>Correcciones reportes PDF</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1dbbaed</t>
+          <t>e3ffb9e</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Merge pull request #10 from aycaRichard12/Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
+          <t>Merge pull request #32 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>b182dc3</t>
+          <t>c8bcf11</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[•] Finalizacion de kardex entrara a rebicion: se modifico el metodo PROMEDIO para hacer las calculos respectivos se arreglo el bug de los reposrtes en pdf</t>
+          <t>correcciones Informe PDFs</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>07716be</t>
+          <t>ac108c7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
+          <t>Merge pull request #31 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3ac0785</t>
+          <t>8ce9d82</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[] PEPS KARDEX SE AÑADIO FORMA DE VER LOS SALDOS PENDIENTES EN LA TABLA PARA PODER IMPRIMIR</t>
+          <t>[•] modificaciones Reporte modelo PDF</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>62a20fb</t>
+          <t>1de06f0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[󐊮] INSERTAR: SE INSERTO A COTIZACION PODER LISTAR PUNTOS DE VENTAS SIN CODIGOSIN PARA LOS COMPROBANTES</t>
+          <t>Merge pull request #30 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10018ef</t>
+          <t>5573204</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[󐊮] UPDATE KARDEX : se mejoro la consulta a la base de datos y en la api se añadio en el metodo pepes como obtener los precios unitarios y tambien las ventas divididas con diferentes precios por cliente ahora nos toca trabajar en frontend para filtrar de la fecha inicial a la fecha final</t>
+          <t>Merge pull request #29 from aycaRichard12/F_correcciones_comercial</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>87eb59c</t>
+          <t>45bf567</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[󐊮] BUG:no registraba ventas errores que salia es que el ticketFactura ya se habia registrado : error la venta prueba se registraba en impuestos pero no se registraba en mistersoft solucion : se clono ventas para simular que se registraron , se agrego trasabilidad de los extrabios y se registrar el origen en el stock que seria de la compra</t>
+          <t>correcciones Comercial</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>429f7b1</t>
+          <t>5b9ae78</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo marge automatico</t>
+          <t>[•] se agrego el modelo nuevo de reportes PDF general, los reportes que se desarrollo en su propio pagina o componente en un principio mover a reportes global</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>79ec238</t>
+          <t>e471fe0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
+          <t>Merge pull request #28 from aycaRichard12/F_correcciones_comercial</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>be2eeca</t>
+          <t>ec2d3b7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[񯢔] CAMBIO EN MAIN BAJARSE EN CADA REPOSITORIO : Se añadio el modal para registrar el punto de vent</t>
+          <t>Correcciones cotizacion Facturacion</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>f6fb50b</t>
+          <t>573c017</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[♦] se añadio trasabilidad en los movimientos de los productos esta en revision si funciona o hay conflicto con otras funciones</t>
+          <t>[CORRECCIONES] añadir cabezera en reporte pdf extravio y merma datos del usuario y datos de la merma o extravio con fecha de impresion</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>66c4346</t>
+          <t>2ff0646</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Merge pull request #9 from aycaRichard12/develop</t>
+          <t>[CORRECCIONES] mostrar en reportes mermas y extrabios un modal de los detalles de los productos registrados en caso de un extravio o un robo</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4dcd9af</t>
+          <t>d157595</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[•] funciones para sacar reportes de los commits</t>
+          <t>Merge pull request #27 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>45fd896</t>
+          <t>33187f2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Merge pull request #8 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
+          <t>Merge pull request #26 from aycaRichard12/F_cotizacion_devolucion</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ff5c859</t>
+          <t>8ddc7c5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[•] agregar marge adevelop</t>
+          <t>[DEVOLUCION COTIZACION] - ADD DEVOLUCION COTIZACION REGISTRO DE DETALLE DEVOLUCION , AUTORIZACION DE STOCK DEVOLUCION COTIZACION, CAMBIOS REPORTES COTIZACION PARA QUE APARESCA CON ESTADO DEV NO FACTURABLE, VER COTIZACION EN DEVOLUCIONES EN REPORTE CONTINGENCIAS Y PODER VER EN COTIZACIONES, SE AÑADIO EN NOTACREDITODEBITO EL TIPO DE DOCUMENTO QUE ES UNA VENTA FACTURADA</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>76114b3</t>
+          <t>9fcacac</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Merge pull request #7 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
+          <t>SE SACO REPORTE PARA INFORME DE AVANCE, SE AÑADIO TIPO DE CAMBIO CON TOTAL</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5d0f3c8</t>
+          <t>c95656c</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1523,12 +1523,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[•] Se añadio punto de venta a cotizaion y se muestra en los reportes tanto de venta y cotizacion</t>
+          <t>añadir anular Cotizacion en cuentas Sin Factura</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>15d5fd2</t>
+          <t>0b77139</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[♦] PENDIENTE: SE AGREGO PUNTO DE VENTA A LOS REPORTES DE VENTAY SE REGISTRA EL PUNTO DE VENTA EN CADA COTIZACION Y SE ESTA VIENDO COLOCAR EL PUNTO DE VENTA EN LOS REPOSRTE Y FALTA REGISTRO DE ALMACEN</t>
+          <t>Merge pull request #25 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>36e9e6d</t>
+          <t>9763c03</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1573,12 +1573,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Merge pull request #6 from aycaRichard12/develop</t>
+          <t>registrar precio sugerido que afecte a todos los almacenes, actulizar tabla compra al registrar automaticamente filtrar del almacen registrodo,visualizar la factura despues de registrar en factura , factura exportacion , factura alquiler, bug mostrar reporte pdf de compras por almacen</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>da93671</t>
+          <t>650c24d</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Merge pull request #5 from aycaRichard12/Feacture-Cotizacion_Detalle_Adicional_Cotizacion</t>
+          <t>Merge pull request #24 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0b50aa7</t>
+          <t>44260ca</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[•] GOOD: se añadio descripcion adicional a cotizacion preferencial o normal en carrito para especificar los servicios tambien se añadio numero factura o ducumento a cotizaion tambien se muestra en los reportes dichos cambios</t>
+          <t>se normalizo useCotizacion que se trajabaron de prueba respuesta de emizor por defecto se quito se añadio el simbolo de moneda en reporte ventas hoy, se añadio eniviar por correo el comprobante o la factura de impuesto tambien al facturar una cotizacion se podra ver la factura despues, se mejoro el reporte para que un link de un pdf sea enviado por correo</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>d5cf671</t>
+          <t>a136883</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Merge pull request #4 from aycaRichard12/develop</t>
+          <t>Merge pull request #23 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>feb7ab7</t>
+          <t>6590116</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Merge pull request #3 from aycaRichard12/Feacture-Detalle_Venta_Cotizacion</t>
+          <t>Arreglar cosigo sin producto, cotizacion facurar de normal y preferencial cambios de estado 2 facturado y no se puede facturar 2 veces</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0225d73</t>
+          <t>8ab1917</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[•] Se agrego descripcion adicional en carrito fenta finalizado</t>
+          <t>Merge pull request #22 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>89d2b1b</t>
+          <t>b8cc5cb</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[•] Se añadio descripcion adicional en carrito ventas debajo de descripcion del producto</t>
+          <t>en App se quito la comparacion du usuario</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2caed0c</t>
+          <t>28f2bf8</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[◘] DEJAR DE RASTREAR .ENV EN DEVELOP</t>
+          <t>Merge pull request #21 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>21063fe</t>
+          <t>25a40d2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1773,12 +1773,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[◘] DEJAR DE RASTREAR EL .ENV</t>
+          <t>Cambios Factura Exportacion add tipo cambio dinamico</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3f1f7ca</t>
+          <t>63d4433</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial</t>
+          <t>cotizacion facturar cotizacion Normal , arreglo facturacion Comercializacion</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>a70e993</t>
+          <t>b74c208</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1823,12 +1823,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[♦♦] CONFIG: gitignore</t>
+          <t>Merge pull request #20 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3b8119a</t>
+          <t>c07fefa</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Merge pull request #2 from aycaRichard12/develop</t>
+          <t>comando por voz, correcciones comercial interfaz , se añadio filtro excel en almacen</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ac09b1b</t>
+          <t>b143628</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Merge branch 'main' into develop</t>
+          <t>Merge pull request #19 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8c87406</t>
+          <t>c81402a</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Merge pull request #1 from aycaRichard12/Feacture-kardex</t>
+          <t>Se arreglo cambio de estado merma</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>40d7dc7</t>
+          <t>3004e31</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture-kardex</t>
+          <t>Se arreglo cambio de estado robo</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8627407</t>
+          <t>4218a69</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[•] Completado editar saldos eliminar y modal desplegable de los saldos de un producto seleccionado</t>
+          <t>Merge pull request #18 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>b1c23da</t>
+          <t>2472148</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1973,12 +1973,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+          <t>[•] Añadir cambios anulacion cotizacion, pdf con sangria Anulado, fitrado tabla similar excel</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2578a08</t>
+          <t>3c3f990</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>Se Actualizo bugs de errores de cotizacion como por ejemplo estado solo hay dos 0 y 1 que significa NORMAL y PREFERENCIAL y se añadio en la base de datos una columna condicion para ver si esta activa o anulada la cotizacion se realizo las pruebas respectivas, se separo la logica en 2 variables estado y condicion</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>92c2751</t>
+          <t>be62e5c</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+          <t>Merge pull request #17 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>af8a9eb</t>
+          <t>5a0ab7a</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[•] Iyeccion mistersoft esta fallando venta</t>
+          <t>[•] ANULAR COTIZACION DE COMERCIAL, MOSTRAR EN PDF ESPECIFICAMENTE EL DOCUMENTO ANULADO LA SANGRIA</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bd7bea8</t>
+          <t>e451dc9</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[♦] Imcompleto cardex para mostrar detalle de saldo final</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>d331fac</t>
+          <t>2fa385f</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[♦] PENDIENTE KARDEX: se logro obtener el precio unitario de cada compra y su respectivo movimiento los negativos son salidas y los positivos son movimientos</t>
+          <t>[•] Configuracion Inicial</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0a097e1</t>
+          <t>a26a606</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>Merge pull request #16 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7a5032d</t>
+          <t>e40fe0e</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[♦] IMCOMPLETO: NO SE TERMINO KARDEX</t>
+          <t>Merge pull request #15 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>85ed0f8</t>
+          <t>e5209e4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>[•] Añadir la opcion de que sea opcional el especificar el lote de la compra al registrar ROBOS y MERMAS</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1531505</t>
+          <t>1175a19</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>Merge pull request #14 from aycaRichard12/Feacture-Correcciones</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5b580ba</t>
+          <t>bdef3d7</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+          <t>[•] botones asignar almacen alineados en fila</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>9f1a936</t>
+          <t>4c4c7c6</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+          <t>[•] Crear titulos para asignar almacen asignar punto de venta y asignar productos</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6faad43</t>
+          <t>5aac9fd</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+          <t>[•] Colocar Iconos a paginas de pedidos</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bad185c</t>
+          <t>f45fc46</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>[•] Etiquetas a botones de MOvimientos cambiar icon de carrito</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>e285b72</t>
+          <t>d87b7cf</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2323,12 +2323,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>[•] Movimientos muestra de forma ordenada columna N°</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9aeafda</t>
+          <t>553336b</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+          <t>Merge pull request #13 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7790afb</t>
+          <t>d661372</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+          <t>[•] Finalizacion obtener token del emizor para la venta out</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>613a00f</t>
+          <t>e82f119</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[NULL] PENDIENTE KARDEX : solo se quedo en obtner precios de las compras nos falta obtener UEPS PEPS Promedio</t>
+          <t>Merge pull request #12 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4ce76ff</t>
+          <t>3b28f38</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+          <t>[•] registrar venta por una ruta diferente en php out/venta metodo POST simplificar endpoint venta para la pagina web ya se hizo la prueba</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>332f720</t>
+          <t>dd75382</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+          <t>[•] ACTUALIZAR apis exteriores para comercial y que funciones bien</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>28d88a6</t>
+          <t>cea6f96</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2473,12 +2473,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[■] MOD : routes no mostrar rutas solo el link de version</t>
+          <t>Merge pull request #11 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>d5a9711</t>
+          <t>1dbbaed</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2498,12 +2498,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+          <t>Merge pull request #10 from aycaRichard12/Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7d8f950</t>
+          <t>b182dc3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+          <t>[•] Finalizacion de kardex entrara a rebicion: se modifico el metodo PROMEDIO para hacer las calculos respectivos se arreglo el bug de los reposrtes en pdf</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>b51fb3d</t>
+          <t>07716be</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>d8a4322</t>
+          <t>3ac0785</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2573,12 +2573,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+          <t>[] PEPS KARDEX SE AÑADIO FORMA DE VER LOS SALDOS PENDIENTES EN LA TABLA PARA PODER IMPRIMIR</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8262c38</t>
+          <t>62a20fb</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2598,12 +2598,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+          <t>[󐊮] INSERTAR: SE INSERTO A COTIZACION PODER LISTAR PUNTOS DE VENTAS SIN CODIGOSIN PARA LOS COMPROBANTES</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>cf100a2</t>
+          <t>10018ef</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2623,12 +2623,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[◼︎] MOD: USUARIO DE PRUEBAS</t>
+          <t>[󐊮] UPDATE KARDEX : se mejoro la consulta a la base de datos y en la api se añadio en el metodo pepes como obtener los precios unitarios y tambien las ventas divididas con diferentes precios por cliente ahora nos toca trabajar en frontend para filtrar de la fecha inicial a la fecha final</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>b5f2ef7</t>
+          <t>87eb59c</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MOD: arreglar routes</t>
+          <t>[󐊮] BUG:no registraba ventas errores que salia es que el ticketFactura ya se habia registrado : error la venta prueba se registraba en impuestos pero no se registraba en mistersoft solucion : se clono ventas para simular que se registraron , se agrego trasabilidad de los extrabios y se registrar el origen en el stock que seria de la compra</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3be4789</t>
+          <t>429f7b1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo marge automatico</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>5a87c4c</t>
+          <t>79ec238</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2698,12 +2698,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MOD: arreglar routes</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>fef5258</t>
+          <t>be2eeca</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+          <t>[񯢔] CAMBIO EN MAIN BAJARSE EN CADA REPOSITORIO : Se añadio el modal para registrar el punto de vent</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>fd450ca</t>
+          <t>f6fb50b</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2748,12 +2748,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>eliminar de routes inventarios kardexPage</t>
+          <t>[♦] se añadio trasabilidad en los movimientos de los productos esta en revision si funciona o hay conflicto con otras funciones</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>991ae7c</t>
+          <t>66c4346</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>eliminar de routes inventarios kardexPage</t>
+          <t>Merge pull request #9 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>67469e9</t>
+          <t>4dcd9af</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+          <t>[•] funciones para sacar reportes de los commits</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4afec30</t>
+          <t>45fd896</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[■] MOD .env para develop</t>
+          <t>Merge pull request #8 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
         </is>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>a5e2ba8</t>
+          <t>ff5c859</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2848,12 +2848,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+          <t>[•] agregar marge adevelop</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>51f047d</t>
+          <t>76114b3</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+          <t>Merge pull request #7 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>bef63cc</t>
+          <t>5d0f3c8</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2898,12 +2898,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+          <t>[•] Se añadio punto de venta a cotizaion y se muestra en los reportes tanto de venta y cotizacion</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0d3e4c2</t>
+          <t>15d5fd2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2923,12 +2923,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[■] configuracion develop terminada - estructura usuarios de pruebas - quasar config</t>
+          <t>[♦] PENDIENTE: SE AGREGO PUNTO DE VENTA A LOS REPORTES DE VENTAY SE REGISTRA EL PUNTO DE VENTA EN CADA COTIZACION Y SE ESTA VIENDO COLOCAR EL PUNTO DE VENTA EN LOS REPOSRTE Y FALTA REGISTRO DE ALMACEN</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>b14e001</t>
+          <t>36e9e6d</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>cambio axios + .nev para produccion, mod services con .env, mod usuarios para pruebas locales y produccion, mod credeciales usuarios para inicialisar en desarrollo no afecta a produccion</t>
+          <t>Merge pull request #6 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>99c04fd</t>
+          <t>da93671</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2973,12 +2973,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>cambios .env si se subira al git no se ignorara</t>
+          <t>Merge pull request #5 from aycaRichard12/Feacture-Cotizacion_Detalle_Adicional_Cotizacion</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>91897d7</t>
+          <t>0b50aa7</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2998,12 +2998,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>configuraicion develop .env, configuracion axios api, confg de services apis externas -&gt; servidor de prueva para hacer lo minimos cambios</t>
+          <t>[•] GOOD: se añadio descripcion adicional a cotizacion preferencial o normal en carrito para especificar los servicios tambien se añadio numero factura o ducumento a cotizaion tambien se muestra en los reportes dichos cambios</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>67b9aa5</t>
+          <t>d5cf671</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3023,12 +3023,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>hacer cambios reporte cuentas por cobrar al generar reporte scroll se posiciona en tabla, añadir kardex a select reportes comiezo de git con ramas</t>
+          <t>Merge pull request #4 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>62dbbab</t>
+          <t>feb7ab7</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3048,12 +3048,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>correcciones comercial</t>
+          <t>Merge pull request #3 from aycaRichard12/Feacture-Detalle_Venta_Cotizacion</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3e0caaa</t>
+          <t>0225d73</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>cambios comercial -NO SE TERMINO COMERCIAL- -se hizo cambios menus falta terminar reportes-</t>
+          <t>[•] Se agrego descripcion adicional en carrito fenta finalizado</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3a1565d</t>
+          <t>89d2b1b</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3098,12 +3098,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>desarrollo ota deito credito</t>
+          <t>[•] Se añadio descripcion adicional en carrito ventas debajo de descripcion del producto</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>412b529</t>
+          <t>2caed0c</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Commmit : Solucion de Error Devolucion Venta / mejora de reportes de Venta Gris</t>
+          <t>[◘] DEJAR DE RASTREAR .ENV EN DEVELOP</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7cd7d32</t>
+          <t>21063fe</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Api Compra Out y Diseño Estructura Guias Interfaz Quasar y Dirver</t>
+          <t>[◘] DEJAR DE RASTREAR EL .ENV</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>a449083</t>
+          <t>3f1f7ca</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Api out ventas finalzida con los parametros optimizados</t>
+          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>b451274</t>
+          <t>a70e993</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3198,12 +3198,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>compra creditos</t>
+          <t>[♦♦] CONFIG: gitignore</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>dd40fa0</t>
+          <t>3b8119a</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>m:correcciones comercial</t>
+          <t>Merge pull request #2 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>da37a18</t>
+          <t>ac09b1b</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3248,12 +3248,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Cambios Sistema correcciones primera interacion</t>
+          <t>Merge branch 'main' into develop</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>f5c4d75</t>
+          <t>8c87406</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Cambios interfaz</t>
+          <t>Merge pull request #1 from aycaRichard12/Feacture-kardex</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>283842d</t>
+          <t>40d7dc7</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Eliminar vendor del repo y agregarlo al .gitignore</t>
+          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture-kardex</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3501c4e</t>
+          <t>8627407</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>first commit</t>
+          <t>[•] Completado editar saldos eliminar y modal desplegable de los saldos de un producto seleccionado</t>
         </is>
       </c>
     </row>
@@ -3338,20 +3338,1395 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>b1c23da</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2578a08</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>92c2751</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>af8a9eb</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>[•] Iyeccion mistersoft esta fallando venta</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>bd7bea8</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>[♦] Imcompleto cardex para mostrar detalle de saldo final</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>d331fac</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>[♦] PENDIENTE KARDEX: se logro obtener el precio unitario de cada compra y su respectivo movimiento los negativos son salidas y los positivos son movimientos</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0a097e1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>7a5032d</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>[♦] IMCOMPLETO: NO SE TERMINO KARDEX</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>85ed0f8</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1531505</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>5b580ba</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>9f1a936</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>6faad43</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>bad185c</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>e285b72</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>9aeafda</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>7790afb</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>613a00f</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>[NULL] PENDIENTE KARDEX : solo se quedo en obtner precios de las compras nos falta obtener UEPS PEPS Promedio</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>4ce76ff</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>332f720</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>28d88a6</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>[■] MOD : routes no mostrar rutas solo el link de version</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>d5a9711</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>7d8f950</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>b51fb3d</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>d8a4322</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>8262c38</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>cf100a2</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[◼︎] MOD: USUARIO DE PRUEBAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>b5f2ef7</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>MOD: arreglar routes</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>3be4789</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>5a87c4c</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>MOD: arreglar routes</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>fef5258</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>fd450ca</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>eliminar de routes inventarios kardexPage</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>991ae7c</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>eliminar de routes inventarios kardexPage</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>67469e9</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>4afec30</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[■] MOD .env para develop</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>a5e2ba8</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>51f047d</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>bef63cc</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0d3e4c2</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>[■] configuracion develop terminada - estructura usuarios de pruebas - quasar config</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>b14e001</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>cambio axios + .nev para produccion, mod services con .env, mod usuarios para pruebas locales y produccion, mod credeciales usuarios para inicialisar en desarrollo no afecta a produccion</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>99c04fd</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>cambios .env si se subira al git no se ignorara</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>91897d7</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>configuraicion develop .env, configuracion axios api, confg de services apis externas -&gt; servidor de prueva para hacer lo minimos cambios</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>67b9aa5</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>hacer cambios reporte cuentas por cobrar al generar reporte scroll se posiciona en tabla, añadir kardex a select reportes comiezo de git con ramas</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>62dbbab</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>correcciones comercial</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>3e0caaa</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>cambios comercial -NO SE TERMINO COMERCIAL- -se hizo cambios menus falta terminar reportes-</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>3a1565d</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>desarrollo ota deito credito</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>412b529</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Commmit : Solucion de Error Devolucion Venta / mejora de reportes de Venta Gris</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>7cd7d32</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Api Compra Out y Diseño Estructura Guias Interfaz Quasar y Dirver</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>a449083</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Api out ventas finalzida con los parametros optimizados</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>b451274</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>compra creditos</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>dd40fa0</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>m:correcciones comercial</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>da37a18</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Cambios Sistema correcciones primera interacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>f5c4d75</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Cambios interfaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>283842d</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Eliminar vendor del repo y agregarlo al .gitignore</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>3501c4e</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>first commit</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
           <t>9409db8</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Ricahrd Ayca</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>Initialize the project 🚀</t>
         </is>

--- a/reporte_avance.xlsx
+++ b/reporte_avance.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6a0b405</t>
+          <t>24c46db</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>docs(partial-merge): como traer solo commits especificos de otro repositorio</t>
+          <t>refactor(dialog-eliminar): agregar mensaje de eliminacion Creacion Almacen</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>806d175</t>
+          <t>45ab8b5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>build(commitizen): herramienta que ayuda a estandarizar los mensajes de commits en git</t>
+          <t>refactor(detalle compra): modificar posicionamiento del simboo divisa</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8f99a94</t>
+          <t>3511926</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>docs(git-commits): guia de commits Profecionales Estructura recomendables en md</t>
+          <t>refactor(p.-precio-sugerido): modificar tabla add column medida x prod simb divisa en col cabezera</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>efc80fc</t>
+          <t>dcebd18</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>docs(git-remotes) documentacion git agregar repositorios remotos al repositorio principal</t>
+          <t>refactor(p.-cunitario): modificar tabla añadir columna medida x producto divisa en colm cabezera</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>143732c</t>
+          <t>7e31079</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fix(responsable-almacen) retornar Almacenes activos asignado y activos e inactivos : se corrigio el use store por que solo se listaba activos e inactivos , se ejecuta otro enpoint para retornar las dos listas sindo uno para nuevos registro como ventas solo los activos, la otra lista es mas para los reportes si antes estuvo activo pero se inavilito sus reportes son necesarios aunque ya esten inactivos</t>
+          <t>refactor(api-configuracion-precios): retornar unidad de medida enpoint p Sugerido y unitario</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>b60d003</t>
+          <t>129fd26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>chore(routes): Configuracion rutas el historial del router segun entorno (SRC/SPA) Y modo (history / hash)</t>
+          <t>fix(proveedores): modificar btns aliniacion</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ad36443</t>
+          <t>36ee89c</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Se mejoro la funcion UseAlmacenStore para devolver las dos respuesta de dos empoints que son endpoint1 = listaResponsableAlmacenReportes/ endpoint2 = listaResponsableAlmacen/</t>
+          <t>chore(pusher): servicio en la nube para gestionar conexciones con las notificaciones</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8b9182f</t>
+          <t>0b6042e</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>finalizar filtrado Cuentas por cobrar con filtrado individual por columna con condicionales</t>
+          <t>info(rep-Nov-Dic): reporte avances</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>c9fa064</t>
+          <t>70193f8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Registrar Credito Cotizacion, tabla armar qr en la tabla</t>
+          <t>docs(mc4-pusher): socket para notificaciones</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>a49df34</t>
+          <t>6a0b405</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cambiar Registrar Categoria Precio a submenu Creacion</t>
+          <t>docs(partial-merge): como traer solo commits especificos de otro repositorio</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>66aafa6</t>
+          <t>806d175</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Asignar Categoria Precio a almacen, agregar credito Cotizacion</t>
+          <t>build(commitizen): herramienta que ayuda a estandarizar los mensajes de commits en git</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4eae866</t>
+          <t>8f99a94</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Arreglar Facturacion descuentos, Reportes estilo Excel mejorar los get columnas</t>
+          <t>docs(git-commits): guia de commits Profecionales Estructura recomendables en md</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2bec562</t>
+          <t>efc80fc</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Filtracion implementado en reportes gestion Ventas, Gestion Cotizacion</t>
+          <t>docs(git-remotes) documentacion git agregar repositorios remotos al repositorio principal</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>f5be112</t>
+          <t>143732c</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Se arreglo el filtrado de los almacenes y se implemento para filtrado general</t>
+          <t>fix(responsable-almacen) retornar Almacenes activos asignado y activos e inactivos : se corrigio el use store por que solo se listaba activos e inactivos , se ejecuta otro enpoint para retornar las dos listas sindo uno para nuevos registro como ventas solo los activos, la otra lista es mas para los reportes si antes estuvo activo pero se inavilito sus reportes son necesarios aunque ya esten inactivos</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>75a8bec</t>
+          <t>b60d003</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
+          <t>chore(routes): Configuracion rutas el historial del router segun entorno (SRC/SPA) Y modo (history / hash)</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16f3326</t>
+          <t>ad36443</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Merge pull request #36 from aycaRichard12/develop</t>
+          <t>Se mejoro la funcion UseAlmacenStore para devolver las dos respuesta de dos empoints que son endpoint1 = listaResponsableAlmacenReportes/ endpoint2 = listaResponsableAlmacen/</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>b9ab466</t>
+          <t>8b9182f</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>listar almacenes activos al hacer una transaccion en compra, venta, cotizacion, merma, extrabio pero en reportes mostrar todos los almacenes, mostrar en detalle compra al añadir un producto al carrito su medida, correcciones comercial en general</t>
+          <t>finalizar filtrado Cuentas por cobrar con filtrado individual por columna con condicionales</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ebb7cf7</t>
+          <t>c9fa064</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Se agrego la funcion de cerrar los reportes PDFs con ECS</t>
+          <t>Registrar Credito Cotizacion, tabla armar qr en la tabla</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>227f72c</t>
+          <t>a49df34</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Anular out Factura</t>
+          <t>Cambiar Registrar Categoria Precio a submenu Creacion</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0f88213</t>
+          <t>66aafa6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Merge pull request #35 from aycaRichard12/develop</t>
+          <t>Asignar Categoria Precio a almacen, agregar credito Cotizacion</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3318ec5</t>
+          <t>4eae866</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SE QUITO LA VALIDACION DE FACTUA SIN, SE REIMPLANTARA POSTERIORMENTE</t>
+          <t>Arreglar Facturacion descuentos, Reportes estilo Excel mejorar los get columnas</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9b469e9</t>
+          <t>2bec562</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Merge pull request #34 from aycaRichard12/develop</t>
+          <t>Filtracion implementado en reportes gestion Ventas, Gestion Cotizacion</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ed0f4b0</t>
+          <t>f5be112</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>desarrollo de devolucion de venta</t>
+          <t>Se arreglo el filtrado de los almacenes y se implemento para filtrado general</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7e0f433</t>
+          <t>75a8bec</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Merge pull request #33 from aycaRichard12/develop</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>c9a2aef</t>
+          <t>16f3326</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Correcciones reportes PDF</t>
+          <t>Merge pull request #36 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>e3ffb9e</t>
+          <t>b9ab466</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Merge pull request #32 from aycaRichard12/develop</t>
+          <t>listar almacenes activos al hacer una transaccion en compra, venta, cotizacion, merma, extrabio pero en reportes mostrar todos los almacenes, mostrar en detalle compra al añadir un producto al carrito su medida, correcciones comercial en general</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>c8bcf11</t>
+          <t>ebb7cf7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>correcciones Informe PDFs</t>
+          <t>Se agrego la funcion de cerrar los reportes PDFs con ECS</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ac108c7</t>
+          <t>227f72c</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Merge pull request #31 from aycaRichard12/develop</t>
+          <t>Anular out Factura</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8ce9d82</t>
+          <t>0f88213</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[•] modificaciones Reporte modelo PDF</t>
+          <t>Merge pull request #35 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1de06f0</t>
+          <t>3318ec5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Merge pull request #30 from aycaRichard12/develop</t>
+          <t>SE QUITO LA VALIDACION DE FACTUA SIN, SE REIMPLANTARA POSTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5573204</t>
+          <t>9b469e9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Merge pull request #29 from aycaRichard12/F_correcciones_comercial</t>
+          <t>Merge pull request #34 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>45bf567</t>
+          <t>ed0f4b0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>correcciones Comercial</t>
+          <t>desarrollo de devolucion de venta</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5b9ae78</t>
+          <t>7e0f433</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[•] se agrego el modelo nuevo de reportes PDF general, los reportes que se desarrollo en su propio pagina o componente en un principio mover a reportes global</t>
+          <t>Merge pull request #33 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>e471fe0</t>
+          <t>c9a2aef</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-11-22</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Merge pull request #28 from aycaRichard12/F_correcciones_comercial</t>
+          <t>Correcciones reportes PDF</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ec2d3b7</t>
+          <t>e3ffb9e</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-11-22</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Correcciones cotizacion Facturacion</t>
+          <t>Merge pull request #32 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>573c017</t>
+          <t>c8bcf11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[CORRECCIONES] añadir cabezera en reporte pdf extravio y merma datos del usuario y datos de la merma o extravio con fecha de impresion</t>
+          <t>correcciones Informe PDFs</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2ff0646</t>
+          <t>ac108c7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[CORRECCIONES] mostrar en reportes mermas y extrabios un modal de los detalles de los productos registrados en caso de un extravio o un robo</t>
+          <t>Merge pull request #31 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>d157595</t>
+          <t>8ce9d82</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Merge pull request #27 from aycaRichard12/develop</t>
+          <t>[•] modificaciones Reporte modelo PDF</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>33187f2</t>
+          <t>1de06f0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Merge pull request #26 from aycaRichard12/F_cotizacion_devolucion</t>
+          <t>Merge pull request #30 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8ddc7c5</t>
+          <t>5573204</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[DEVOLUCION COTIZACION] - ADD DEVOLUCION COTIZACION REGISTRO DE DETALLE DEVOLUCION , AUTORIZACION DE STOCK DEVOLUCION COTIZACION, CAMBIOS REPORTES COTIZACION PARA QUE APARESCA CON ESTADO DEV NO FACTURABLE, VER COTIZACION EN DEVOLUCIONES EN REPORTE CONTINGENCIAS Y PODER VER EN COTIZACIONES, SE AÑADIO EN NOTACREDITODEBITO EL TIPO DE DOCUMENTO QUE ES UNA VENTA FACTURADA</t>
+          <t>Merge pull request #29 from aycaRichard12/F_correcciones_comercial</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9fcacac</t>
+          <t>45bf567</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SE SACO REPORTE PARA INFORME DE AVANCE, SE AÑADIO TIPO DE CAMBIO CON TOTAL</t>
+          <t>correcciones Comercial</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>c95656c</t>
+          <t>5b9ae78</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1523,12 +1523,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>añadir anular Cotizacion en cuentas Sin Factura</t>
+          <t>[•] se agrego el modelo nuevo de reportes PDF general, los reportes que se desarrollo en su propio pagina o componente en un principio mover a reportes global</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0b77139</t>
+          <t>e471fe0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Merge pull request #25 from aycaRichard12/develop</t>
+          <t>Merge pull request #28 from aycaRichard12/F_correcciones_comercial</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9763c03</t>
+          <t>ec2d3b7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1573,12 +1573,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>registrar precio sugerido que afecte a todos los almacenes, actulizar tabla compra al registrar automaticamente filtrar del almacen registrodo,visualizar la factura despues de registrar en factura , factura exportacion , factura alquiler, bug mostrar reporte pdf de compras por almacen</t>
+          <t>Correcciones cotizacion Facturacion</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>650c24d</t>
+          <t>573c017</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Merge pull request #24 from aycaRichard12/develop</t>
+          <t>[CORRECCIONES] añadir cabezera en reporte pdf extravio y merma datos del usuario y datos de la merma o extravio con fecha de impresion</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>44260ca</t>
+          <t>2ff0646</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>se normalizo useCotizacion que se trajabaron de prueba respuesta de emizor por defecto se quito se añadio el simbolo de moneda en reporte ventas hoy, se añadio eniviar por correo el comprobante o la factura de impuesto tambien al facturar una cotizacion se podra ver la factura despues, se mejoro el reporte para que un link de un pdf sea enviado por correo</t>
+          <t>[CORRECCIONES] mostrar en reportes mermas y extrabios un modal de los detalles de los productos registrados en caso de un extravio o un robo</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>a136883</t>
+          <t>d157595</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Merge pull request #23 from aycaRichard12/develop</t>
+          <t>Merge pull request #27 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6590116</t>
+          <t>33187f2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Arreglar cosigo sin producto, cotizacion facurar de normal y preferencial cambios de estado 2 facturado y no se puede facturar 2 veces</t>
+          <t>Merge pull request #26 from aycaRichard12/F_cotizacion_devolucion</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8ab1917</t>
+          <t>8ddc7c5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Merge pull request #22 from aycaRichard12/develop</t>
+          <t>[DEVOLUCION COTIZACION] - ADD DEVOLUCION COTIZACION REGISTRO DE DETALLE DEVOLUCION , AUTORIZACION DE STOCK DEVOLUCION COTIZACION, CAMBIOS REPORTES COTIZACION PARA QUE APARESCA CON ESTADO DEV NO FACTURABLE, VER COTIZACION EN DEVOLUCIONES EN REPORTE CONTINGENCIAS Y PODER VER EN COTIZACIONES, SE AÑADIO EN NOTACREDITODEBITO EL TIPO DE DOCUMENTO QUE ES UNA VENTA FACTURADA</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>b8cc5cb</t>
+          <t>9fcacac</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>en App se quito la comparacion du usuario</t>
+          <t>SE SACO REPORTE PARA INFORME DE AVANCE, SE AÑADIO TIPO DE CAMBIO CON TOTAL</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>28f2bf8</t>
+          <t>c95656c</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Merge pull request #21 from aycaRichard12/develop</t>
+          <t>añadir anular Cotizacion en cuentas Sin Factura</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>25a40d2</t>
+          <t>0b77139</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1773,12 +1773,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cambios Factura Exportacion add tipo cambio dinamico</t>
+          <t>Merge pull request #25 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>63d4433</t>
+          <t>9763c03</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>cotizacion facturar cotizacion Normal , arreglo facturacion Comercializacion</t>
+          <t>registrar precio sugerido que afecte a todos los almacenes, actulizar tabla compra al registrar automaticamente filtrar del almacen registrodo,visualizar la factura despues de registrar en factura , factura exportacion , factura alquiler, bug mostrar reporte pdf de compras por almacen</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>b74c208</t>
+          <t>650c24d</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1823,12 +1823,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Merge pull request #20 from aycaRichard12/develop</t>
+          <t>Merge pull request #24 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>c07fefa</t>
+          <t>44260ca</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>comando por voz, correcciones comercial interfaz , se añadio filtro excel en almacen</t>
+          <t>se normalizo useCotizacion que se trajabaron de prueba respuesta de emizor por defecto se quito se añadio el simbolo de moneda en reporte ventas hoy, se añadio eniviar por correo el comprobante o la factura de impuesto tambien al facturar una cotizacion se podra ver la factura despues, se mejoro el reporte para que un link de un pdf sea enviado por correo</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>b143628</t>
+          <t>a136883</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Merge pull request #19 from aycaRichard12/develop</t>
+          <t>Merge pull request #23 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>c81402a</t>
+          <t>6590116</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Se arreglo cambio de estado merma</t>
+          <t>Arreglar cosigo sin producto, cotizacion facurar de normal y preferencial cambios de estado 2 facturado y no se puede facturar 2 veces</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3004e31</t>
+          <t>8ab1917</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Se arreglo cambio de estado robo</t>
+          <t>Merge pull request #22 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4218a69</t>
+          <t>b8cc5cb</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Merge pull request #18 from aycaRichard12/develop</t>
+          <t>en App se quito la comparacion du usuario</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2472148</t>
+          <t>28f2bf8</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1973,12 +1973,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[•] Añadir cambios anulacion cotizacion, pdf con sangria Anulado, fitrado tabla similar excel</t>
+          <t>Merge pull request #21 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3c3f990</t>
+          <t>25a40d2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Se Actualizo bugs de errores de cotizacion como por ejemplo estado solo hay dos 0 y 1 que significa NORMAL y PREFERENCIAL y se añadio en la base de datos una columna condicion para ver si esta activa o anulada la cotizacion se realizo las pruebas respectivas, se separo la logica en 2 variables estado y condicion</t>
+          <t>Cambios Factura Exportacion add tipo cambio dinamico</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>be62e5c</t>
+          <t>63d4433</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Merge pull request #17 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
+          <t>cotizacion facturar cotizacion Normal , arreglo facturacion Comercializacion</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5a0ab7a</t>
+          <t>b74c208</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[•] ANULAR COTIZACION DE COMERCIAL, MOSTRAR EN PDF ESPECIFICAMENTE EL DOCUMENTO ANULADO LA SANGRIA</t>
+          <t>Merge pull request #20 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>e451dc9</t>
+          <t>c07fefa</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
+          <t>comando por voz, correcciones comercial interfaz , se añadio filtro excel en almacen</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2fa385f</t>
+          <t>b143628</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[•] Configuracion Inicial</t>
+          <t>Merge pull request #19 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>a26a606</t>
+          <t>c81402a</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Merge pull request #16 from aycaRichard12/develop</t>
+          <t>Se arreglo cambio de estado merma</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>e40fe0e</t>
+          <t>3004e31</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Merge pull request #15 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
+          <t>Se arreglo cambio de estado robo</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>e5209e4</t>
+          <t>4218a69</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[•] Añadir la opcion de que sea opcional el especificar el lote de la compra al registrar ROBOS y MERMAS</t>
+          <t>Merge pull request #18 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1175a19</t>
+          <t>2472148</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Merge pull request #14 from aycaRichard12/Feacture-Correcciones</t>
+          <t>[•] Añadir cambios anulacion cotizacion, pdf con sangria Anulado, fitrado tabla similar excel</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bdef3d7</t>
+          <t>3c3f990</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[•] botones asignar almacen alineados en fila</t>
+          <t>Se Actualizo bugs de errores de cotizacion como por ejemplo estado solo hay dos 0 y 1 que significa NORMAL y PREFERENCIAL y se añadio en la base de datos una columna condicion para ver si esta activa o anulada la cotizacion se realizo las pruebas respectivas, se separo la logica en 2 variables estado y condicion</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4c4c7c6</t>
+          <t>be62e5c</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[•] Crear titulos para asignar almacen asignar punto de venta y asignar productos</t>
+          <t>Merge pull request #17 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5aac9fd</t>
+          <t>5a0ab7a</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[•] Colocar Iconos a paginas de pedidos</t>
+          <t>[•] ANULAR COTIZACION DE COMERCIAL, MOSTRAR EN PDF ESPECIFICAMENTE EL DOCUMENTO ANULADO LA SANGRIA</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>f45fc46</t>
+          <t>e451dc9</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[•] Etiquetas a botones de MOvimientos cambiar icon de carrito</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>d87b7cf</t>
+          <t>2fa385f</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2323,12 +2323,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[•] Movimientos muestra de forma ordenada columna N°</t>
+          <t>[•] Configuracion Inicial</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>553336b</t>
+          <t>a26a606</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Merge pull request #13 from aycaRichard12/develop</t>
+          <t>Merge pull request #16 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>d661372</t>
+          <t>e40fe0e</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[•] Finalizacion obtener token del emizor para la venta out</t>
+          <t>Merge pull request #15 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>e82f119</t>
+          <t>e5209e4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Merge pull request #12 from aycaRichard12/develop</t>
+          <t>[•] Añadir la opcion de que sea opcional el especificar el lote de la compra al registrar ROBOS y MERMAS</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3b28f38</t>
+          <t>1175a19</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[•] registrar venta por una ruta diferente en php out/venta metodo POST simplificar endpoint venta para la pagina web ya se hizo la prueba</t>
+          <t>Merge pull request #14 from aycaRichard12/Feacture-Correcciones</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>dd75382</t>
+          <t>bdef3d7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[•] ACTUALIZAR apis exteriores para comercial y que funciones bien</t>
+          <t>[•] botones asignar almacen alineados en fila</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>cea6f96</t>
+          <t>4c4c7c6</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2473,12 +2473,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Merge pull request #11 from aycaRichard12/develop</t>
+          <t>[•] Crear titulos para asignar almacen asignar punto de venta y asignar productos</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1dbbaed</t>
+          <t>5aac9fd</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2498,12 +2498,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Merge pull request #10 from aycaRichard12/Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
+          <t>[•] Colocar Iconos a paginas de pedidos</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>b182dc3</t>
+          <t>f45fc46</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[•] Finalizacion de kardex entrara a rebicion: se modifico el metodo PROMEDIO para hacer las calculos respectivos se arreglo el bug de los reposrtes en pdf</t>
+          <t>[•] Etiquetas a botones de MOvimientos cambiar icon de carrito</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>07716be</t>
+          <t>d87b7cf</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
+          <t>[•] Movimientos muestra de forma ordenada columna N°</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3ac0785</t>
+          <t>553336b</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2573,12 +2573,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[] PEPS KARDEX SE AÑADIO FORMA DE VER LOS SALDOS PENDIENTES EN LA TABLA PARA PODER IMPRIMIR</t>
+          <t>Merge pull request #13 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>62a20fb</t>
+          <t>d661372</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2598,12 +2598,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[󐊮] INSERTAR: SE INSERTO A COTIZACION PODER LISTAR PUNTOS DE VENTAS SIN CODIGOSIN PARA LOS COMPROBANTES</t>
+          <t>[•] Finalizacion obtener token del emizor para la venta out</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>10018ef</t>
+          <t>e82f119</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2623,12 +2623,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[󐊮] UPDATE KARDEX : se mejoro la consulta a la base de datos y en la api se añadio en el metodo pepes como obtener los precios unitarios y tambien las ventas divididas con diferentes precios por cliente ahora nos toca trabajar en frontend para filtrar de la fecha inicial a la fecha final</t>
+          <t>Merge pull request #12 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>87eb59c</t>
+          <t>3b28f38</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[󐊮] BUG:no registraba ventas errores que salia es que el ticketFactura ya se habia registrado : error la venta prueba se registraba en impuestos pero no se registraba en mistersoft solucion : se clono ventas para simular que se registraron , se agrego trasabilidad de los extrabios y se registrar el origen en el stock que seria de la compra</t>
+          <t>[•] registrar venta por una ruta diferente en php out/venta metodo POST simplificar endpoint venta para la pagina web ya se hizo la prueba</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>429f7b1</t>
+          <t>dd75382</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo marge automatico</t>
+          <t>[•] ACTUALIZAR apis exteriores para comercial y que funciones bien</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>79ec238</t>
+          <t>cea6f96</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2698,12 +2698,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
+          <t>Merge pull request #11 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>be2eeca</t>
+          <t>1dbbaed</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[񯢔] CAMBIO EN MAIN BAJARSE EN CADA REPOSITORIO : Se añadio el modal para registrar el punto de vent</t>
+          <t>Merge pull request #10 from aycaRichard12/Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>f6fb50b</t>
+          <t>b182dc3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2748,12 +2748,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[♦] se añadio trasabilidad en los movimientos de los productos esta en revision si funciona o hay conflicto con otras funciones</t>
+          <t>[•] Finalizacion de kardex entrara a rebicion: se modifico el metodo PROMEDIO para hacer las calculos respectivos se arreglo el bug de los reposrtes en pdf</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>66c4346</t>
+          <t>07716be</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Merge pull request #9 from aycaRichard12/develop</t>
+          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4dcd9af</t>
+          <t>3ac0785</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[•] funciones para sacar reportes de los commits</t>
+          <t>[] PEPS KARDEX SE AÑADIO FORMA DE VER LOS SALDOS PENDIENTES EN LA TABLA PARA PODER IMPRIMIR</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>45fd896</t>
+          <t>62a20fb</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Merge pull request #8 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
+          <t>[󐊮] INSERTAR: SE INSERTO A COTIZACION PODER LISTAR PUNTOS DE VENTAS SIN CODIGOSIN PARA LOS COMPROBANTES</t>
         </is>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ff5c859</t>
+          <t>10018ef</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2848,12 +2848,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[•] agregar marge adevelop</t>
+          <t>[󐊮] UPDATE KARDEX : se mejoro la consulta a la base de datos y en la api se añadio en el metodo pepes como obtener los precios unitarios y tambien las ventas divididas con diferentes precios por cliente ahora nos toca trabajar en frontend para filtrar de la fecha inicial a la fecha final</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>76114b3</t>
+          <t>87eb59c</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Merge pull request #7 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
+          <t>[󐊮] BUG:no registraba ventas errores que salia es que el ticketFactura ya se habia registrado : error la venta prueba se registraba en impuestos pero no se registraba en mistersoft solucion : se clono ventas para simular que se registraron , se agrego trasabilidad de los extrabios y se registrar el origen en el stock que seria de la compra</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5d0f3c8</t>
+          <t>429f7b1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2898,12 +2898,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[•] Se añadio punto de venta a cotizaion y se muestra en los reportes tanto de venta y cotizacion</t>
+          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo marge automatico</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>15d5fd2</t>
+          <t>79ec238</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2923,12 +2923,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[♦] PENDIENTE: SE AGREGO PUNTO DE VENTA A LOS REPORTES DE VENTAY SE REGISTRA EL PUNTO DE VENTA EN CADA COTIZACION Y SE ESTA VIENDO COLOCAR EL PUNTO DE VENTA EN LOS REPOSRTE Y FALTA REGISTRO DE ALMACEN</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>36e9e6d</t>
+          <t>be2eeca</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Merge pull request #6 from aycaRichard12/develop</t>
+          <t>[񯢔] CAMBIO EN MAIN BAJARSE EN CADA REPOSITORIO : Se añadio el modal para registrar el punto de vent</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>da93671</t>
+          <t>f6fb50b</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2973,12 +2973,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Merge pull request #5 from aycaRichard12/Feacture-Cotizacion_Detalle_Adicional_Cotizacion</t>
+          <t>[♦] se añadio trasabilidad en los movimientos de los productos esta en revision si funciona o hay conflicto con otras funciones</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0b50aa7</t>
+          <t>66c4346</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2998,12 +2998,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[•] GOOD: se añadio descripcion adicional a cotizacion preferencial o normal en carrito para especificar los servicios tambien se añadio numero factura o ducumento a cotizaion tambien se muestra en los reportes dichos cambios</t>
+          <t>Merge pull request #9 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>d5cf671</t>
+          <t>4dcd9af</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3023,12 +3023,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Merge pull request #4 from aycaRichard12/develop</t>
+          <t>[•] funciones para sacar reportes de los commits</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>feb7ab7</t>
+          <t>45fd896</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3048,12 +3048,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Merge pull request #3 from aycaRichard12/Feacture-Detalle_Venta_Cotizacion</t>
+          <t>Merge pull request #8 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0225d73</t>
+          <t>ff5c859</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[•] Se agrego descripcion adicional en carrito fenta finalizado</t>
+          <t>[•] agregar marge adevelop</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>89d2b1b</t>
+          <t>76114b3</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3098,12 +3098,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[•] Se añadio descripcion adicional en carrito ventas debajo de descripcion del producto</t>
+          <t>Merge pull request #7 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2caed0c</t>
+          <t>5d0f3c8</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[◘] DEJAR DE RASTREAR .ENV EN DEVELOP</t>
+          <t>[•] Se añadio punto de venta a cotizaion y se muestra en los reportes tanto de venta y cotizacion</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>21063fe</t>
+          <t>15d5fd2</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[◘] DEJAR DE RASTREAR EL .ENV</t>
+          <t>[♦] PENDIENTE: SE AGREGO PUNTO DE VENTA A LOS REPORTES DE VENTAY SE REGISTRA EL PUNTO DE VENTA EN CADA COTIZACION Y SE ESTA VIENDO COLOCAR EL PUNTO DE VENTA EN LOS REPOSRTE Y FALTA REGISTRO DE ALMACEN</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>3f1f7ca</t>
+          <t>36e9e6d</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial</t>
+          <t>Merge pull request #6 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>a70e993</t>
+          <t>da93671</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3198,12 +3198,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[♦♦] CONFIG: gitignore</t>
+          <t>Merge pull request #5 from aycaRichard12/Feacture-Cotizacion_Detalle_Adicional_Cotizacion</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3b8119a</t>
+          <t>0b50aa7</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Merge pull request #2 from aycaRichard12/develop</t>
+          <t>[•] GOOD: se añadio descripcion adicional a cotizacion preferencial o normal en carrito para especificar los servicios tambien se añadio numero factura o ducumento a cotizaion tambien se muestra en los reportes dichos cambios</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ac09b1b</t>
+          <t>d5cf671</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3248,12 +3248,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Merge branch 'main' into develop</t>
+          <t>Merge pull request #4 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>8c87406</t>
+          <t>feb7ab7</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Merge pull request #1 from aycaRichard12/Feacture-kardex</t>
+          <t>Merge pull request #3 from aycaRichard12/Feacture-Detalle_Venta_Cotizacion</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>40d7dc7</t>
+          <t>0225d73</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture-kardex</t>
+          <t>[•] Se agrego descripcion adicional en carrito fenta finalizado</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>8627407</t>
+          <t>89d2b1b</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[•] Completado editar saldos eliminar y modal desplegable de los saldos de un producto seleccionado</t>
+          <t>[•] Se añadio descripcion adicional en carrito ventas debajo de descripcion del producto</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>b1c23da</t>
+          <t>2caed0c</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3348,12 +3348,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+          <t>[◘] DEJAR DE RASTREAR .ENV EN DEVELOP</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2578a08</t>
+          <t>21063fe</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3373,12 +3373,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>[◘] DEJAR DE RASTREAR EL .ENV</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>92c2751</t>
+          <t>3f1f7ca</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>af8a9eb</t>
+          <t>a70e993</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[•] Iyeccion mistersoft esta fallando venta</t>
+          <t>[♦♦] CONFIG: gitignore</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>bd7bea8</t>
+          <t>3b8119a</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3448,12 +3448,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[♦] Imcompleto cardex para mostrar detalle de saldo final</t>
+          <t>Merge pull request #2 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>d331fac</t>
+          <t>ac09b1b</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3473,12 +3473,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[♦] PENDIENTE KARDEX: se logro obtener el precio unitario de cada compra y su respectivo movimiento los negativos son salidas y los positivos son movimientos</t>
+          <t>Merge branch 'main' into develop</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>0a097e1</t>
+          <t>8c87406</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3498,12 +3498,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>Merge pull request #1 from aycaRichard12/Feacture-kardex</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7a5032d</t>
+          <t>40d7dc7</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3523,12 +3523,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[♦] IMCOMPLETO: NO SE TERMINO KARDEX</t>
+          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture-kardex</t>
         </is>
       </c>
     </row>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>85ed0f8</t>
+          <t>8627407</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>[•] Completado editar saldos eliminar y modal desplegable de los saldos de un producto seleccionado</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1531505</t>
+          <t>b1c23da</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3573,12 +3573,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>5b580ba</t>
+          <t>2578a08</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3598,12 +3598,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>9f1a936</t>
+          <t>92c2751</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3623,12 +3623,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>6faad43</t>
+          <t>af8a9eb</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3648,12 +3648,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+          <t>[•] Iyeccion mistersoft esta fallando venta</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>bad185c</t>
+          <t>bd7bea8</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3673,12 +3673,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>[♦] Imcompleto cardex para mostrar detalle de saldo final</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>e285b72</t>
+          <t>d331fac</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3698,12 +3698,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>[♦] PENDIENTE KARDEX: se logro obtener el precio unitario de cada compra y su respectivo movimiento los negativos son salidas y los positivos son movimientos</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>9aeafda</t>
+          <t>0a097e1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3723,12 +3723,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7790afb</t>
+          <t>7a5032d</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3748,12 +3748,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+          <t>[♦] IMCOMPLETO: NO SE TERMINO KARDEX</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>613a00f</t>
+          <t>85ed0f8</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[NULL] PENDIENTE KARDEX : solo se quedo en obtner precios de las compras nos falta obtener UEPS PEPS Promedio</t>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>4ce76ff</t>
+          <t>1531505</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>332f720</t>
+          <t>5b580ba</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>28d88a6</t>
+          <t>9f1a936</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3848,12 +3848,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[■] MOD : routes no mostrar rutas solo el link de version</t>
+          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>d5a9711</t>
+          <t>6faad43</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
         </is>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7d8f950</t>
+          <t>bad185c</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>b51fb3d</t>
+          <t>e285b72</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3923,12 +3923,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>d8a4322</t>
+          <t>9aeafda</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3948,12 +3948,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>8262c38</t>
+          <t>7790afb</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3973,12 +3973,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
         </is>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>cf100a2</t>
+          <t>613a00f</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3998,12 +3998,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[◼︎] MOD: USUARIO DE PRUEBAS</t>
+          <t>[NULL] PENDIENTE KARDEX : solo se quedo en obtner precios de las compras nos falta obtener UEPS PEPS Promedio</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>b5f2ef7</t>
+          <t>4ce76ff</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MOD: arreglar routes</t>
+          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>3be4789</t>
+          <t>332f720</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4048,12 +4048,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>5a87c4c</t>
+          <t>28d88a6</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MOD: arreglar routes</t>
+          <t>[■] MOD : routes no mostrar rutas solo el link de version</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>fef5258</t>
+          <t>d5a9711</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4098,12 +4098,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>fd450ca</t>
+          <t>7d8f950</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4123,12 +4123,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>eliminar de routes inventarios kardexPage</t>
+          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>991ae7c</t>
+          <t>b51fb3d</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>eliminar de routes inventarios kardexPage</t>
+          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
         </is>
       </c>
     </row>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>67469e9</t>
+          <t>d8a4322</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4173,12 +4173,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
         </is>
       </c>
     </row>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>4afec30</t>
+          <t>8262c38</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[■] MOD .env para develop</t>
+          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>a5e2ba8</t>
+          <t>cf100a2</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+          <t>[◼︎] MOD: USUARIO DE PRUEBAS</t>
         </is>
       </c>
     </row>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>51f047d</t>
+          <t>b5f2ef7</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4248,12 +4248,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+          <t>MOD: arreglar routes</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>bef63cc</t>
+          <t>3be4789</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4273,12 +4273,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>0d3e4c2</t>
+          <t>5a87c4c</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4298,12 +4298,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[■] configuracion develop terminada - estructura usuarios de pruebas - quasar config</t>
+          <t>MOD: arreglar routes</t>
         </is>
       </c>
     </row>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>b14e001</t>
+          <t>fef5258</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>cambio axios + .nev para produccion, mod services con .env, mod usuarios para pruebas locales y produccion, mod credeciales usuarios para inicialisar en desarrollo no afecta a produccion</t>
+          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>99c04fd</t>
+          <t>fd450ca</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4348,12 +4348,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>cambios .env si se subira al git no se ignorara</t>
+          <t>eliminar de routes inventarios kardexPage</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>91897d7</t>
+          <t>991ae7c</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4373,12 +4373,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>configuraicion develop .env, configuracion axios api, confg de services apis externas -&gt; servidor de prueva para hacer lo minimos cambios</t>
+          <t>eliminar de routes inventarios kardexPage</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>67b9aa5</t>
+          <t>67469e9</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4398,12 +4398,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>hacer cambios reporte cuentas por cobrar al generar reporte scroll se posiciona en tabla, añadir kardex a select reportes comiezo de git con ramas</t>
+          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>62dbbab</t>
+          <t>4afec30</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4423,12 +4423,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>correcciones comercial</t>
+          <t>[■] MOD .env para develop</t>
         </is>
       </c>
     </row>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>3e0caaa</t>
+          <t>a5e2ba8</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>cambios comercial -NO SE TERMINO COMERCIAL- -se hizo cambios menus falta terminar reportes-</t>
+          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>3a1565d</t>
+          <t>51f047d</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>desarrollo ota deito credito</t>
+          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
         </is>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>412b529</t>
+          <t>bef63cc</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Commmit : Solucion de Error Devolucion Venta / mejora de reportes de Venta Gris</t>
+          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7cd7d32</t>
+          <t>0d3e4c2</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4523,12 +4523,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Api Compra Out y Diseño Estructura Guias Interfaz Quasar y Dirver</t>
+          <t>[■] configuracion develop terminada - estructura usuarios de pruebas - quasar config</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>a449083</t>
+          <t>b14e001</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4548,12 +4548,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Api out ventas finalzida con los parametros optimizados</t>
+          <t>cambio axios + .nev para produccion, mod services con .env, mod usuarios para pruebas locales y produccion, mod credeciales usuarios para inicialisar en desarrollo no afecta a produccion</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>b451274</t>
+          <t>99c04fd</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4573,12 +4573,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>compra creditos</t>
+          <t>cambios .env si se subira al git no se ignorara</t>
         </is>
       </c>
     </row>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>dd40fa0</t>
+          <t>91897d7</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4598,12 +4598,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>m:correcciones comercial</t>
+          <t>configuraicion develop .env, configuracion axios api, confg de services apis externas -&gt; servidor de prueva para hacer lo minimos cambios</t>
         </is>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>da37a18</t>
+          <t>67b9aa5</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Cambios Sistema correcciones primera interacion</t>
+          <t>hacer cambios reporte cuentas por cobrar al generar reporte scroll se posiciona en tabla, añadir kardex a select reportes comiezo de git con ramas</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>f5c4d75</t>
+          <t>62dbbab</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4648,12 +4648,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Cambios interfaz</t>
+          <t>correcciones comercial</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>283842d</t>
+          <t>3e0caaa</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4673,12 +4673,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Eliminar vendor del repo y agregarlo al .gitignore</t>
+          <t>cambios comercial -NO SE TERMINO COMERCIAL- -se hizo cambios menus falta terminar reportes-</t>
         </is>
       </c>
     </row>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>3501c4e</t>
+          <t>3a1565d</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4698,12 +4698,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>first commit</t>
+          <t>desarrollo ota deito credito</t>
         </is>
       </c>
     </row>
@@ -4713,20 +4713,245 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
+          <t>412b529</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Commmit : Solucion de Error Devolucion Venta / mejora de reportes de Venta Gris</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>7cd7d32</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Api Compra Out y Diseño Estructura Guias Interfaz Quasar y Dirver</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>a449083</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Api out ventas finalzida con los parametros optimizados</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>b451274</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>compra creditos</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>dd40fa0</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>m:correcciones comercial</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>da37a18</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Cambios Sistema correcciones primera interacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>f5c4d75</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Cambios interfaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>283842d</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Eliminar vendor del repo y agregarlo al .gitignore</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>3501c4e</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>first commit</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>9409db8</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>Ricahrd Ayca</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>Initialize the project 🚀</t>
         </is>

--- a/reporte_avance.xlsx
+++ b/reporte_avance.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24c46db</t>
+          <t>ca3b8c8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>refactor(dialog-eliminar): agregar mensaje de eliminacion Creacion Almacen</t>
+          <t>fix(Main-layout) descomentar ir a dashborad</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>45ab8b5</t>
+          <t>8dad30b</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>refactor(detalle compra): modificar posicionamiento del simboo divisa</t>
+          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into develop</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3511926</t>
+          <t>3fd0839</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>refactor(p.-precio-sugerido): modificar tabla add column medida x prod simb divisa en col cabezera</t>
+          <t>fix(Lista responsables - Notificaciones pusher)se añadio que genere el md5 del idusario</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dcebd18</t>
+          <t>53e8435</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>refactor(p.-cunitario): modificar tabla añadir columna medida x producto divisa en colm cabezera</t>
+          <t>Merge pull request #31 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7e31079</t>
+          <t>867979b</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>refactor(api-configuracion-precios): retornar unidad de medida enpoint p Sugerido y unitario</t>
+          <t>fix(compras) informacion Usuario api getPedido_</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>129fd26</t>
+          <t>4b5e95b</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fix(proveedores): modificar btns aliniacion</t>
+          <t>Merge branch 'main' into develop</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>36ee89c</t>
+          <t>22d7797</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>chore(pusher): servicio en la nube para gestionar conexciones con las notificaciones</t>
+          <t>fix(api) Update image path and enhance error handling in service controllers</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0b6042e</t>
+          <t>36854e0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>info(rep-Nov-Dic): reporte avances</t>
+          <t>fix(importacion clientes / proveedor excel)</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>70193f8</t>
+          <t>9a76691</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>docs(mc4-pusher): socket para notificaciones</t>
+          <t>new(configuracion Pusher) condifugracion Backend Pusher</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6a0b405</t>
+          <t>b4f6f3d</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>docs(partial-merge): como traer solo commits especificos de otro repositorio</t>
+          <t>Merge pull request #50 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>806d175</t>
+          <t>1ef5711</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>build(commitizen): herramienta que ayuda a estandarizar los mensajes de commits en git</t>
+          <t>Merge pull request #26 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8f99a94</t>
+          <t>188b76e</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>docs(git-commits): guia de commits Profecionales Estructura recomendables en md</t>
+          <t>new(Movimientos, Servicios Pusher) Apis para movimientos en grupo</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>efc80fc</t>
+          <t>76050b6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>docs(git-remotes) documentacion git agregar repositorios remotos al repositorio principal</t>
+          <t>fix(pedidos-Movimientos)De varios pedidos con el mismo almacen destino poder crear un solo movimiento</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>143732c</t>
+          <t>f4b0e20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fix(responsable-almacen) retornar Almacenes activos asignado y activos e inactivos : se corrigio el use store por que solo se listaba activos e inactivos , se ejecuta otro enpoint para retornar las dos listas sindo uno para nuevos registro como ventas solo los activos, la otra lista es mas para los reportes si antes estuvo activo pero se inavilito sus reportes son necesarios aunque ya esten inactivos</t>
+          <t>Merge pull request #49 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>b60d003</t>
+          <t>ada6c9f</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>chore(routes): Configuracion rutas el historial del router segun entorno (SRC/SPA) Y modo (history / hash)</t>
+          <t>fix(compras-Mantenimiento) reportes productos proveedores - compras proveedores</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ad36443</t>
+          <t>d355f85</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Se mejoro la funcion UseAlmacenStore para devolver las dos respuesta de dos empoints que son endpoint1 = listaResponsableAlmacenReportes/ endpoint2 = listaResponsableAlmacen/</t>
+          <t>Merge pull request #23 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8b9182f</t>
+          <t>b3af5cc</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>finalizar filtrado Cuentas por cobrar con filtrado individual por columna con condicionales</t>
+          <t>Api reporte Producto Proveedor Compras</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>c9fa064</t>
+          <t>9a5a445</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Registrar Credito Cotizacion, tabla armar qr en la tabla</t>
+          <t>fix(cherry pick) rama main config para bajar los cambios desde el repositorio remoto</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>a49df34</t>
+          <t>250a092</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cambiar Registrar Categoria Precio a submenu Creacion</t>
+          <t>Merge pull request #20 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>66aafa6</t>
+          <t>ae68c9e</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Asignar Categoria Precio a almacen, agregar credito Cotizacion</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4eae866</t>
+          <t>379e1be</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Arreglar Facturacion descuentos, Reportes estilo Excel mejorar los get columnas</t>
+          <t>Merge pull request #48 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2bec562</t>
+          <t>81b14dc</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Filtracion implementado en reportes gestion Ventas, Gestion Cotizacion</t>
+          <t>Merge pull request #19 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>f5be112</t>
+          <t>1d66cf3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Se arreglo el filtrado de los almacenes y se implemento para filtrado general</t>
+          <t>Merge pull request #17 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>75a8bec</t>
+          <t>b27093f</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
+          <t>Merge pull request #16 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16f3326</t>
+          <t>c759e6c</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Merge pull request #36 from aycaRichard12/develop</t>
+          <t>reporte compra proveedor</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>b9ab466</t>
+          <t>dc0766d</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>listar almacenes activos al hacer una transaccion en compra, venta, cotizacion, merma, extrabio pero en reportes mostrar todos los almacenes, mostrar en detalle compra al añadir un producto al carrito su medida, correcciones comercial en general</t>
+          <t>añadir menus a develop</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ebb7cf7</t>
+          <t>0346015</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Se agrego la funcion de cerrar los reportes PDFs con ECS</t>
+          <t>Merge pull request #14 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>227f72c</t>
+          <t>f52fd56</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Anular out Factura</t>
+          <t>feat(reportes): add new report functions for inventory and user details</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0f88213</t>
+          <t>2266d29</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Merge pull request #35 from aycaRichard12/develop</t>
+          <t>Instalacion de los librerias para inventario exterior</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3318ec5</t>
+          <t>6b05239</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SE QUITO LA VALIDACION DE FACTUA SIN, SE REIMPLANTARA POSTERIORMENTE</t>
+          <t>feat(backend inv exterior): se agrego nuevo reporte de inventario Exterior</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9b469e9</t>
+          <t>02dcedc</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Merge pull request #34 from aycaRichard12/develop</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ed0f4b0</t>
+          <t>59a98ca</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>desarrollo de devolucion de venta</t>
+          <t>BLOQUEAR LA CONFIGURACION PUSHER POR AHORA</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7e0f433</t>
+          <t>74a9374</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Merge pull request #33 from aycaRichard12/develop</t>
+          <t>Merge pull request #47 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>c9a2aef</t>
+          <t>34ae7c2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Correcciones reportes PDF</t>
+          <t>Merge pull request #12 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>e3ffb9e</t>
+          <t>d736d59</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Merge pull request #32 from aycaRichard12/develop</t>
+          <t>Merge pull request #11 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>c8bcf11</t>
+          <t>7007cb8</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>correcciones Informe PDFs</t>
+          <t>feat(autorizar operaciones): funcion para que el usuario pueda tener permiso en compras y pedidos</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ac108c7</t>
+          <t>d608172</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Merge pull request #31 from aycaRichard12/develop</t>
+          <t>fix(inventario exterior): inventario Exterior en la api listar se agrego la long lat para maps</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8ce9d82</t>
+          <t>ee62ecb</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[•] modificaciones Reporte modelo PDF</t>
+          <t>Merge pull request #46 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1de06f0</t>
+          <t>e5217df</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Merge pull request #30 from aycaRichard12/develop</t>
+          <t>Merge pull request #45 from aycaRichard12/cambios_pasante</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5573204</t>
+          <t>f6961de</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Merge pull request #29 from aycaRichard12/F_correcciones_comercial</t>
+          <t>cambio Formato de codigo</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>45bf567</t>
+          <t>3aff417</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>correcciones Comercial</t>
+          <t>Merge pull request #10 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5b9ae78</t>
+          <t>4f9a77b</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1523,12 +1523,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[•] se agrego el modelo nuevo de reportes PDF general, los reportes que se desarrollo en su propio pagina o componente en un principio mover a reportes global</t>
+          <t>feat(autorizaciones operaciones): modulo para dar permiso a los usuario si la operaciones cm</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>e471fe0</t>
+          <t>6dbedb5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-11-22</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Merge pull request #28 from aycaRichard12/F_correcciones_comercial</t>
+          <t>Merge pull request #9 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ec2d3b7</t>
+          <t>6296e1e</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1573,12 +1573,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-11-22</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Correcciones cotizacion Facturacion</t>
+          <t>Merge pull request #8 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>573c017</t>
+          <t>d0e8ff7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[CORRECCIONES] añadir cabezera en reporte pdf extravio y merma datos del usuario y datos de la merma o extravio con fecha de impresion</t>
+          <t>Merge pull request #7 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2ff0646</t>
+          <t>8dec43d</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[CORRECCIONES] mostrar en reportes mermas y extrabios un modal de los detalles de los productos registrados en caso de un extravio o un robo</t>
+          <t>Merge pull request #6 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>d157595</t>
+          <t>7377186</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Merge pull request #27 from aycaRichard12/develop</t>
+          <t>feat(operaciones  permisos): las operaciones en cm que se podran autorizar por otro usuario o no</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>33187f2</t>
+          <t>255031b</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Merge pull request #26 from aycaRichard12/F_cotizacion_devolucion</t>
+          <t>Merge pull request #5 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8ddc7c5</t>
+          <t>868380b</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[DEVOLUCION COTIZACION] - ADD DEVOLUCION COTIZACION REGISTRO DE DETALLE DEVOLUCION , AUTORIZACION DE STOCK DEVOLUCION COTIZACION, CAMBIOS REPORTES COTIZACION PARA QUE APARESCA CON ESTADO DEV NO FACTURABLE, VER COTIZACION EN DEVOLUCIONES EN REPORTE CONTINGENCIAS Y PODER VER EN COTIZACIONES, SE AÑADIO EN NOTACREDITODEBITO EL TIPO DE DOCUMENTO QUE ES UNA VENTA FACTURADA</t>
+          <t>Merge pull request #3 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>9fcacac</t>
+          <t>b995c39</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SE SACO REPORTE PARA INFORME DE AVANCE, SE AÑADIO TIPO DE CAMBIO CON TOTAL</t>
+          <t>docs(git): documentacion fucionar de remote app aplicacion python</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>c95656c</t>
+          <t>85d64de</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>añadir anular Cotizacion en cuentas Sin Factura</t>
+          <t>Merge pull request #2 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0b77139</t>
+          <t>bfc8d8a</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1773,12 +1773,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Merge pull request #25 from aycaRichard12/develop</t>
+          <t>feat(soft externos backend): se añadio la api para software externos el sistema para notificaciones</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>9763c03</t>
+          <t>d9561b6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>registrar precio sugerido que afecte a todos los almacenes, actulizar tabla compra al registrar automaticamente filtrar del almacen registrodo,visualizar la factura despues de registrar en factura , factura exportacion , factura alquiler, bug mostrar reporte pdf de compras por almacen</t>
+          <t>Merge pull request #44 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>650c24d</t>
+          <t>24c46db</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1823,12 +1823,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Merge pull request #24 from aycaRichard12/develop</t>
+          <t>refactor(dialog-eliminar): agregar mensaje de eliminacion Creacion Almacen</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>44260ca</t>
+          <t>c46d0e5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>se normalizo useCotizacion que se trajabaron de prueba respuesta de emizor por defecto se quito se añadio el simbolo de moneda en reporte ventas hoy, se añadio eniviar por correo el comprobante o la factura de impuesto tambien al facturar una cotizacion se podra ver la factura despues, se mejoro el reporte para que un link de un pdf sea enviado por correo</t>
+          <t>Merge pull request #43 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>a136883</t>
+          <t>45ab8b5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Merge pull request #23 from aycaRichard12/develop</t>
+          <t>refactor(detalle compra): modificar posicionamiento del simboo divisa</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6590116</t>
+          <t>3511926</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Arreglar cosigo sin producto, cotizacion facurar de normal y preferencial cambios de estado 2 facturado y no se puede facturar 2 veces</t>
+          <t>refactor(p.-precio-sugerido): modificar tabla add column medida x prod simb divisa en col cabezera</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>8ab1917</t>
+          <t>dcebd18</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Merge pull request #22 from aycaRichard12/develop</t>
+          <t>refactor(p.-cunitario): modificar tabla añadir columna medida x producto divisa en colm cabezera</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>b8cc5cb</t>
+          <t>7e31079</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>en App se quito la comparacion du usuario</t>
+          <t>refactor(api-configuracion-precios): retornar unidad de medida enpoint p Sugerido y unitario</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>28f2bf8</t>
+          <t>129fd26</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1973,12 +1973,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Merge pull request #21 from aycaRichard12/develop</t>
+          <t>fix(proveedores): modificar btns aliniacion</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>25a40d2</t>
+          <t>36ee89c</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cambios Factura Exportacion add tipo cambio dinamico</t>
+          <t>chore(pusher): servicio en la nube para gestionar conexciones con las notificaciones</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>63d4433</t>
+          <t>0b6042e</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>cotizacion facturar cotizacion Normal , arreglo facturacion Comercializacion</t>
+          <t>info(rep-Nov-Dic): reporte avances</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>b74c208</t>
+          <t>70193f8</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Merge pull request #20 from aycaRichard12/develop</t>
+          <t>docs(mc4-pusher): socket para notificaciones</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>c07fefa</t>
+          <t>6a0b405</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>comando por voz, correcciones comercial interfaz , se añadio filtro excel en almacen</t>
+          <t>docs(partial-merge): como traer solo commits especificos de otro repositorio</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>b143628</t>
+          <t>806d175</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Merge pull request #19 from aycaRichard12/develop</t>
+          <t>build(commitizen): herramienta que ayuda a estandarizar los mensajes de commits en git</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>c81402a</t>
+          <t>8f99a94</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Se arreglo cambio de estado merma</t>
+          <t>docs(git-commits): guia de commits Profecionales Estructura recomendables en md</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3004e31</t>
+          <t>efc80fc</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Se arreglo cambio de estado robo</t>
+          <t>docs(git-remotes) documentacion git agregar repositorios remotos al repositorio principal</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4218a69</t>
+          <t>143732c</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Merge pull request #18 from aycaRichard12/develop</t>
+          <t>fix(responsable-almacen) retornar Almacenes activos asignado y activos e inactivos : se corrigio el use store por que solo se listaba activos e inactivos , se ejecuta otro enpoint para retornar las dos listas sindo uno para nuevos registro como ventas solo los activos, la otra lista es mas para los reportes si antes estuvo activo pero se inavilito sus reportes son necesarios aunque ya esten inactivos</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2472148</t>
+          <t>b60d003</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[•] Añadir cambios anulacion cotizacion, pdf con sangria Anulado, fitrado tabla similar excel</t>
+          <t>chore(routes): Configuracion rutas el historial del router segun entorno (SRC/SPA) Y modo (history / hash)</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3c3f990</t>
+          <t>bba8abf</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Se Actualizo bugs de errores de cotizacion como por ejemplo estado solo hay dos 0 y 1 que significa NORMAL y PREFERENCIAL y se añadio en la base de datos una columna condicion para ver si esta activa o anulada la cotizacion se realizo las pruebas respectivas, se separo la logica en 2 variables estado y condicion</t>
+          <t>Merge pull request #42 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>be62e5c</t>
+          <t>ad36443</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Merge pull request #17 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
+          <t>Se mejoro la funcion UseAlmacenStore para devolver las dos respuesta de dos empoints que son endpoint1 = listaResponsableAlmacenReportes/ endpoint2 = listaResponsableAlmacen/</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5a0ab7a</t>
+          <t>e6ad549</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[•] ANULAR COTIZACION DE COMERCIAL, MOSTRAR EN PDF ESPECIFICAMENTE EL DOCUMENTO ANULADO LA SANGRIA</t>
+          <t>Merge pull request #41 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>e451dc9</t>
+          <t>8b9182f</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
+          <t>finalizar filtrado Cuentas por cobrar con filtrado individual por columna con condicionales</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2fa385f</t>
+          <t>c9fa064</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2323,12 +2323,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[•] Configuracion Inicial</t>
+          <t>Registrar Credito Cotizacion, tabla armar qr en la tabla</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>a26a606</t>
+          <t>59eb867</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Merge pull request #16 from aycaRichard12/develop</t>
+          <t>Merge pull request #40 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>e40fe0e</t>
+          <t>a49df34</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Merge pull request #15 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
+          <t>Cambiar Registrar Categoria Precio a submenu Creacion</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>e5209e4</t>
+          <t>c2abaec</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[•] Añadir la opcion de que sea opcional el especificar el lote de la compra al registrar ROBOS y MERMAS</t>
+          <t>Merge pull request #39 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1175a19</t>
+          <t>66aafa6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Merge pull request #14 from aycaRichard12/Feacture-Correcciones</t>
+          <t>Asignar Categoria Precio a almacen, agregar credito Cotizacion</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bdef3d7</t>
+          <t>5b93635</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[•] botones asignar almacen alineados en fila</t>
+          <t>Merge pull request #38 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>4c4c7c6</t>
+          <t>4eae866</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2473,12 +2473,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[•] Crear titulos para asignar almacen asignar punto de venta y asignar productos</t>
+          <t>Arreglar Facturacion descuentos, Reportes estilo Excel mejorar los get columnas</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5aac9fd</t>
+          <t>9b7fd58</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2498,12 +2498,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[•] Colocar Iconos a paginas de pedidos</t>
+          <t>Merge pull request #37 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>f45fc46</t>
+          <t>2bec562</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[•] Etiquetas a botones de MOvimientos cambiar icon de carrito</t>
+          <t>Filtracion implementado en reportes gestion Ventas, Gestion Cotizacion</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>d87b7cf</t>
+          <t>f5be112</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[•] Movimientos muestra de forma ordenada columna N°</t>
+          <t>Se arreglo el filtrado de los almacenes y se implemento para filtrado general</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>553336b</t>
+          <t>75a8bec</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2573,12 +2573,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Merge pull request #13 from aycaRichard12/develop</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>d661372</t>
+          <t>16f3326</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2598,12 +2598,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[•] Finalizacion obtener token del emizor para la venta out</t>
+          <t>Merge pull request #36 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>e82f119</t>
+          <t>b9ab466</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2623,12 +2623,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Merge pull request #12 from aycaRichard12/develop</t>
+          <t>listar almacenes activos al hacer una transaccion en compra, venta, cotizacion, merma, extrabio pero en reportes mostrar todos los almacenes, mostrar en detalle compra al añadir un producto al carrito su medida, correcciones comercial en general</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3b28f38</t>
+          <t>ebb7cf7</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[•] registrar venta por una ruta diferente en php out/venta metodo POST simplificar endpoint venta para la pagina web ya se hizo la prueba</t>
+          <t>Se agrego la funcion de cerrar los reportes PDFs con ECS</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>dd75382</t>
+          <t>227f72c</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[•] ACTUALIZAR apis exteriores para comercial y que funciones bien</t>
+          <t>Anular out Factura</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>cea6f96</t>
+          <t>0f88213</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2698,12 +2698,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Merge pull request #11 from aycaRichard12/develop</t>
+          <t>Merge pull request #35 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1dbbaed</t>
+          <t>3318ec5</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Merge pull request #10 from aycaRichard12/Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
+          <t>SE QUITO LA VALIDACION DE FACTUA SIN, SE REIMPLANTARA POSTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>b182dc3</t>
+          <t>9b469e9</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2748,12 +2748,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[•] Finalizacion de kardex entrara a rebicion: se modifico el metodo PROMEDIO para hacer las calculos respectivos se arreglo el bug de los reposrtes en pdf</t>
+          <t>Merge pull request #34 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>07716be</t>
+          <t>ed0f4b0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
+          <t>desarrollo de devolucion de venta</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3ac0785</t>
+          <t>7e0f433</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[] PEPS KARDEX SE AÑADIO FORMA DE VER LOS SALDOS PENDIENTES EN LA TABLA PARA PODER IMPRIMIR</t>
+          <t>Merge pull request #33 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>62a20fb</t>
+          <t>c9a2aef</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[󐊮] INSERTAR: SE INSERTO A COTIZACION PODER LISTAR PUNTOS DE VENTAS SIN CODIGOSIN PARA LOS COMPROBANTES</t>
+          <t>Correcciones reportes PDF</t>
         </is>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>10018ef</t>
+          <t>e3ffb9e</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2848,12 +2848,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[󐊮] UPDATE KARDEX : se mejoro la consulta a la base de datos y en la api se añadio en el metodo pepes como obtener los precios unitarios y tambien las ventas divididas con diferentes precios por cliente ahora nos toca trabajar en frontend para filtrar de la fecha inicial a la fecha final</t>
+          <t>Merge pull request #32 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>87eb59c</t>
+          <t>c8bcf11</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[󐊮] BUG:no registraba ventas errores que salia es que el ticketFactura ya se habia registrado : error la venta prueba se registraba en impuestos pero no se registraba en mistersoft solucion : se clono ventas para simular que se registraron , se agrego trasabilidad de los extrabios y se registrar el origen en el stock que seria de la compra</t>
+          <t>correcciones Informe PDFs</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>429f7b1</t>
+          <t>ac108c7</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2898,12 +2898,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo marge automatico</t>
+          <t>Merge pull request #31 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>79ec238</t>
+          <t>8ce9d82</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2923,12 +2923,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
+          <t>[•] modificaciones Reporte modelo PDF</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>be2eeca</t>
+          <t>1de06f0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[񯢔] CAMBIO EN MAIN BAJARSE EN CADA REPOSITORIO : Se añadio el modal para registrar el punto de vent</t>
+          <t>Merge pull request #30 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>f6fb50b</t>
+          <t>5573204</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2973,12 +2973,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[♦] se añadio trasabilidad en los movimientos de los productos esta en revision si funciona o hay conflicto con otras funciones</t>
+          <t>Merge pull request #29 from aycaRichard12/F_correcciones_comercial</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>66c4346</t>
+          <t>45bf567</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2998,12 +2998,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Merge pull request #9 from aycaRichard12/develop</t>
+          <t>correcciones Comercial</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4dcd9af</t>
+          <t>5b9ae78</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3023,12 +3023,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[•] funciones para sacar reportes de los commits</t>
+          <t>[•] se agrego el modelo nuevo de reportes PDF general, los reportes que se desarrollo en su propio pagina o componente en un principio mover a reportes global</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>45fd896</t>
+          <t>e471fe0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3048,12 +3048,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Merge pull request #8 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
+          <t>Merge pull request #28 from aycaRichard12/F_correcciones_comercial</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ff5c859</t>
+          <t>ec2d3b7</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[•] agregar marge adevelop</t>
+          <t>Correcciones cotizacion Facturacion</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>76114b3</t>
+          <t>573c017</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3098,12 +3098,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Merge pull request #7 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
+          <t>[CORRECCIONES] añadir cabezera en reporte pdf extravio y merma datos del usuario y datos de la merma o extravio con fecha de impresion</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>5d0f3c8</t>
+          <t>2ff0646</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[•] Se añadio punto de venta a cotizaion y se muestra en los reportes tanto de venta y cotizacion</t>
+          <t>[CORRECCIONES] mostrar en reportes mermas y extrabios un modal de los detalles de los productos registrados en caso de un extravio o un robo</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>15d5fd2</t>
+          <t>d157595</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[♦] PENDIENTE: SE AGREGO PUNTO DE VENTA A LOS REPORTES DE VENTAY SE REGISTRA EL PUNTO DE VENTA EN CADA COTIZACION Y SE ESTA VIENDO COLOCAR EL PUNTO DE VENTA EN LOS REPOSRTE Y FALTA REGISTRO DE ALMACEN</t>
+          <t>Merge pull request #27 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>36e9e6d</t>
+          <t>33187f2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Merge pull request #6 from aycaRichard12/develop</t>
+          <t>Merge pull request #26 from aycaRichard12/F_cotizacion_devolucion</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>da93671</t>
+          <t>8ddc7c5</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3198,12 +3198,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Merge pull request #5 from aycaRichard12/Feacture-Cotizacion_Detalle_Adicional_Cotizacion</t>
+          <t>[DEVOLUCION COTIZACION] - ADD DEVOLUCION COTIZACION REGISTRO DE DETALLE DEVOLUCION , AUTORIZACION DE STOCK DEVOLUCION COTIZACION, CAMBIOS REPORTES COTIZACION PARA QUE APARESCA CON ESTADO DEV NO FACTURABLE, VER COTIZACION EN DEVOLUCIONES EN REPORTE CONTINGENCIAS Y PODER VER EN COTIZACIONES, SE AÑADIO EN NOTACREDITODEBITO EL TIPO DE DOCUMENTO QUE ES UNA VENTA FACTURADA</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>0b50aa7</t>
+          <t>9fcacac</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[•] GOOD: se añadio descripcion adicional a cotizacion preferencial o normal en carrito para especificar los servicios tambien se añadio numero factura o ducumento a cotizaion tambien se muestra en los reportes dichos cambios</t>
+          <t>SE SACO REPORTE PARA INFORME DE AVANCE, SE AÑADIO TIPO DE CAMBIO CON TOTAL</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>d5cf671</t>
+          <t>c95656c</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3248,12 +3248,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Merge pull request #4 from aycaRichard12/develop</t>
+          <t>añadir anular Cotizacion en cuentas Sin Factura</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>feb7ab7</t>
+          <t>0b77139</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Merge pull request #3 from aycaRichard12/Feacture-Detalle_Venta_Cotizacion</t>
+          <t>Merge pull request #25 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0225d73</t>
+          <t>9763c03</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[•] Se agrego descripcion adicional en carrito fenta finalizado</t>
+          <t>registrar precio sugerido que afecte a todos los almacenes, actulizar tabla compra al registrar automaticamente filtrar del almacen registrodo,visualizar la factura despues de registrar en factura , factura exportacion , factura alquiler, bug mostrar reporte pdf de compras por almacen</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>89d2b1b</t>
+          <t>650c24d</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[•] Se añadio descripcion adicional en carrito ventas debajo de descripcion del producto</t>
+          <t>Merge pull request #24 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2caed0c</t>
+          <t>44260ca</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3348,12 +3348,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[◘] DEJAR DE RASTREAR .ENV EN DEVELOP</t>
+          <t>se normalizo useCotizacion que se trajabaron de prueba respuesta de emizor por defecto se quito se añadio el simbolo de moneda en reporte ventas hoy, se añadio eniviar por correo el comprobante o la factura de impuesto tambien al facturar una cotizacion se podra ver la factura despues, se mejoro el reporte para que un link de un pdf sea enviado por correo</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>21063fe</t>
+          <t>a136883</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3373,12 +3373,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[◘] DEJAR DE RASTREAR EL .ENV</t>
+          <t>Merge pull request #23 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3f1f7ca</t>
+          <t>6590116</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial</t>
+          <t>Arreglar cosigo sin producto, cotizacion facurar de normal y preferencial cambios de estado 2 facturado y no se puede facturar 2 veces</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>a70e993</t>
+          <t>8ab1917</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[♦♦] CONFIG: gitignore</t>
+          <t>Merge pull request #22 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3b8119a</t>
+          <t>b8cc5cb</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3448,12 +3448,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Merge pull request #2 from aycaRichard12/develop</t>
+          <t>en App se quito la comparacion du usuario</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ac09b1b</t>
+          <t>28f2bf8</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3473,12 +3473,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Merge branch 'main' into develop</t>
+          <t>Merge pull request #21 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>8c87406</t>
+          <t>25a40d2</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3498,12 +3498,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Merge pull request #1 from aycaRichard12/Feacture-kardex</t>
+          <t>Cambios Factura Exportacion add tipo cambio dinamico</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>40d7dc7</t>
+          <t>63d4433</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3523,12 +3523,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture-kardex</t>
+          <t>cotizacion facturar cotizacion Normal , arreglo facturacion Comercializacion</t>
         </is>
       </c>
     </row>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>8627407</t>
+          <t>b74c208</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[•] Completado editar saldos eliminar y modal desplegable de los saldos de un producto seleccionado</t>
+          <t>Merge pull request #20 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>b1c23da</t>
+          <t>c07fefa</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3573,12 +3573,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+          <t>comando por voz, correcciones comercial interfaz , se añadio filtro excel en almacen</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2578a08</t>
+          <t>b143628</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3598,12 +3598,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>Merge pull request #19 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>92c2751</t>
+          <t>c81402a</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3623,12 +3623,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+          <t>Se arreglo cambio de estado merma</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>af8a9eb</t>
+          <t>3004e31</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3648,12 +3648,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[•] Iyeccion mistersoft esta fallando venta</t>
+          <t>Se arreglo cambio de estado robo</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>bd7bea8</t>
+          <t>4218a69</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3673,12 +3673,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[♦] Imcompleto cardex para mostrar detalle de saldo final</t>
+          <t>Merge pull request #18 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>d331fac</t>
+          <t>2472148</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3698,12 +3698,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[♦] PENDIENTE KARDEX: se logro obtener el precio unitario de cada compra y su respectivo movimiento los negativos son salidas y los positivos son movimientos</t>
+          <t>[•] Añadir cambios anulacion cotizacion, pdf con sangria Anulado, fitrado tabla similar excel</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>0a097e1</t>
+          <t>3c3f990</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3723,12 +3723,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>Se Actualizo bugs de errores de cotizacion como por ejemplo estado solo hay dos 0 y 1 que significa NORMAL y PREFERENCIAL y se añadio en la base de datos una columna condicion para ver si esta activa o anulada la cotizacion se realizo las pruebas respectivas, se separo la logica en 2 variables estado y condicion</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7a5032d</t>
+          <t>be62e5c</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3748,12 +3748,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[♦] IMCOMPLETO: NO SE TERMINO KARDEX</t>
+          <t>Merge pull request #17 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>85ed0f8</t>
+          <t>5a0ab7a</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>[•] ANULAR COTIZACION DE COMERCIAL, MOSTRAR EN PDF ESPECIFICAMENTE EL DOCUMENTO ANULADO LA SANGRIA</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1531505</t>
+          <t>e451dc9</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>5b580ba</t>
+          <t>2fa385f</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+          <t>[•] Configuracion Inicial</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>9f1a936</t>
+          <t>a26a606</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3848,12 +3848,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+          <t>Merge pull request #16 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>6faad43</t>
+          <t>e40fe0e</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3873,12 +3873,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+          <t>Merge pull request #15 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
         </is>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>bad185c</t>
+          <t>e5209e4</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>[•] Añadir la opcion de que sea opcional el especificar el lote de la compra al registrar ROBOS y MERMAS</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>e285b72</t>
+          <t>1175a19</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3923,12 +3923,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>Merge pull request #14 from aycaRichard12/Feacture-Correcciones</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>9aeafda</t>
+          <t>bdef3d7</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3948,12 +3948,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+          <t>[•] botones asignar almacen alineados en fila</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7790afb</t>
+          <t>4c4c7c6</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3973,12 +3973,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+          <t>[•] Crear titulos para asignar almacen asignar punto de venta y asignar productos</t>
         </is>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>613a00f</t>
+          <t>5aac9fd</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3998,12 +3998,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[NULL] PENDIENTE KARDEX : solo se quedo en obtner precios de las compras nos falta obtener UEPS PEPS Promedio</t>
+          <t>[•] Colocar Iconos a paginas de pedidos</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>4ce76ff</t>
+          <t>f45fc46</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+          <t>[•] Etiquetas a botones de MOvimientos cambiar icon de carrito</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>332f720</t>
+          <t>d87b7cf</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4048,12 +4048,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+          <t>[•] Movimientos muestra de forma ordenada columna N°</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>28d88a6</t>
+          <t>553336b</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[■] MOD : routes no mostrar rutas solo el link de version</t>
+          <t>Merge pull request #13 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>d5a9711</t>
+          <t>d661372</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4098,12 +4098,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+          <t>[•] Finalizacion obtener token del emizor para la venta out</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7d8f950</t>
+          <t>e82f119</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4123,12 +4123,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+          <t>Merge pull request #12 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>b51fb3d</t>
+          <t>3b28f38</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+          <t>[•] registrar venta por una ruta diferente en php out/venta metodo POST simplificar endpoint venta para la pagina web ya se hizo la prueba</t>
         </is>
       </c>
     </row>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>d8a4322</t>
+          <t>dd75382</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4173,12 +4173,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+          <t>[•] ACTUALIZAR apis exteriores para comercial y que funciones bien</t>
         </is>
       </c>
     </row>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>8262c38</t>
+          <t>cea6f96</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+          <t>Merge pull request #11 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>cf100a2</t>
+          <t>1dbbaed</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[◼︎] MOD: USUARIO DE PRUEBAS</t>
+          <t>Merge pull request #10 from aycaRichard12/Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
         </is>
       </c>
     </row>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>b5f2ef7</t>
+          <t>b182dc3</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4248,12 +4248,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>MOD: arreglar routes</t>
+          <t>[•] Finalizacion de kardex entrara a rebicion: se modifico el metodo PROMEDIO para hacer las calculos respectivos se arreglo el bug de los reposrtes en pdf</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>3be4789</t>
+          <t>07716be</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4273,12 +4273,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>5a87c4c</t>
+          <t>3ac0785</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4298,12 +4298,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MOD: arreglar routes</t>
+          <t>[] PEPS KARDEX SE AÑADIO FORMA DE VER LOS SALDOS PENDIENTES EN LA TABLA PARA PODER IMPRIMIR</t>
         </is>
       </c>
     </row>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>fef5258</t>
+          <t>62a20fb</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+          <t>[󐊮] INSERTAR: SE INSERTO A COTIZACION PODER LISTAR PUNTOS DE VENTAS SIN CODIGOSIN PARA LOS COMPROBANTES</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>fd450ca</t>
+          <t>10018ef</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4348,12 +4348,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>eliminar de routes inventarios kardexPage</t>
+          <t>[󐊮] UPDATE KARDEX : se mejoro la consulta a la base de datos y en la api se añadio en el metodo pepes como obtener los precios unitarios y tambien las ventas divididas con diferentes precios por cliente ahora nos toca trabajar en frontend para filtrar de la fecha inicial a la fecha final</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>991ae7c</t>
+          <t>87eb59c</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4373,12 +4373,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>eliminar de routes inventarios kardexPage</t>
+          <t>[󐊮] BUG:no registraba ventas errores que salia es que el ticketFactura ya se habia registrado : error la venta prueba se registraba en impuestos pero no se registraba en mistersoft solucion : se clono ventas para simular que se registraron , se agrego trasabilidad de los extrabios y se registrar el origen en el stock que seria de la compra</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>67469e9</t>
+          <t>429f7b1</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4398,12 +4398,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo marge automatico</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>4afec30</t>
+          <t>79ec238</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4423,12 +4423,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[■] MOD .env para develop</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>a5e2ba8</t>
+          <t>be2eeca</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+          <t>[񯢔] CAMBIO EN MAIN BAJARSE EN CADA REPOSITORIO : Se añadio el modal para registrar el punto de vent</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>51f047d</t>
+          <t>f6fb50b</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+          <t>[♦] se añadio trasabilidad en los movimientos de los productos esta en revision si funciona o hay conflicto con otras funciones</t>
         </is>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>bef63cc</t>
+          <t>66c4346</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+          <t>Merge pull request #9 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>0d3e4c2</t>
+          <t>4dcd9af</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4523,12 +4523,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[■] configuracion develop terminada - estructura usuarios de pruebas - quasar config</t>
+          <t>[•] funciones para sacar reportes de los commits</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>b14e001</t>
+          <t>45fd896</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4548,12 +4548,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>cambio axios + .nev para produccion, mod services con .env, mod usuarios para pruebas locales y produccion, mod credeciales usuarios para inicialisar en desarrollo no afecta a produccion</t>
+          <t>Merge pull request #8 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>99c04fd</t>
+          <t>ff5c859</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4573,12 +4573,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>cambios .env si se subira al git no se ignorara</t>
+          <t>[•] agregar marge adevelop</t>
         </is>
       </c>
     </row>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>91897d7</t>
+          <t>76114b3</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4598,12 +4598,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>configuraicion develop .env, configuracion axios api, confg de services apis externas -&gt; servidor de prueva para hacer lo minimos cambios</t>
+          <t>Merge pull request #7 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
         </is>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>67b9aa5</t>
+          <t>5d0f3c8</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>hacer cambios reporte cuentas por cobrar al generar reporte scroll se posiciona en tabla, añadir kardex a select reportes comiezo de git con ramas</t>
+          <t>[•] Se añadio punto de venta a cotizaion y se muestra en los reportes tanto de venta y cotizacion</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>62dbbab</t>
+          <t>15d5fd2</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4648,12 +4648,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>correcciones comercial</t>
+          <t>[♦] PENDIENTE: SE AGREGO PUNTO DE VENTA A LOS REPORTES DE VENTAY SE REGISTRA EL PUNTO DE VENTA EN CADA COTIZACION Y SE ESTA VIENDO COLOCAR EL PUNTO DE VENTA EN LOS REPOSRTE Y FALTA REGISTRO DE ALMACEN</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>3e0caaa</t>
+          <t>36e9e6d</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4673,12 +4673,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>cambios comercial -NO SE TERMINO COMERCIAL- -se hizo cambios menus falta terminar reportes-</t>
+          <t>Merge pull request #6 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>3a1565d</t>
+          <t>da93671</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4698,12 +4698,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>desarrollo ota deito credito</t>
+          <t>Merge pull request #5 from aycaRichard12/Feacture-Cotizacion_Detalle_Adicional_Cotizacion</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>412b529</t>
+          <t>0b50aa7</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4723,12 +4723,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Commmit : Solucion de Error Devolucion Venta / mejora de reportes de Venta Gris</t>
+          <t>[•] GOOD: se añadio descripcion adicional a cotizacion preferencial o normal en carrito para especificar los servicios tambien se añadio numero factura o ducumento a cotizaion tambien se muestra en los reportes dichos cambios</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7cd7d32</t>
+          <t>d5cf671</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Api Compra Out y Diseño Estructura Guias Interfaz Quasar y Dirver</t>
+          <t>Merge pull request #4 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>a449083</t>
+          <t>feb7ab7</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4773,12 +4773,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Api out ventas finalzida con los parametros optimizados</t>
+          <t>Merge pull request #3 from aycaRichard12/Feacture-Detalle_Venta_Cotizacion</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>b451274</t>
+          <t>0225d73</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4798,12 +4798,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>compra creditos</t>
+          <t>[•] Se agrego descripcion adicional en carrito fenta finalizado</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>dd40fa0</t>
+          <t>89d2b1b</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4823,12 +4823,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>m:correcciones comercial</t>
+          <t>[•] Se añadio descripcion adicional en carrito ventas debajo de descripcion del producto</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>da37a18</t>
+          <t>2caed0c</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4848,12 +4848,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Cambios Sistema correcciones primera interacion</t>
+          <t>[◘] DEJAR DE RASTREAR .ENV EN DEVELOP</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>f5c4d75</t>
+          <t>21063fe</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Cambios interfaz</t>
+          <t>[◘] DEJAR DE RASTREAR EL .ENV</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>283842d</t>
+          <t>3f1f7ca</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4898,12 +4898,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Eliminar vendor del repo y agregarlo al .gitignore</t>
+          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>3501c4e</t>
+          <t>a70e993</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4923,12 +4923,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>first commit</t>
+          <t>[♦♦] CONFIG: gitignore</t>
         </is>
       </c>
     </row>
@@ -4938,20 +4938,1520 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
+          <t>3b8119a</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Merge pull request #2 from aycaRichard12/develop</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ac09b1b</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Merge branch 'main' into develop</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>8c87406</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Merge pull request #1 from aycaRichard12/Feacture-kardex</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>40d7dc7</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture-kardex</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>8627407</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>[•] Completado editar saldos eliminar y modal desplegable de los saldos de un producto seleccionado</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>b1c23da</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2578a08</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>92c2751</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>af8a9eb</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>[•] Iyeccion mistersoft esta fallando venta</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>bd7bea8</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>[♦] Imcompleto cardex para mostrar detalle de saldo final</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>d331fac</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>[♦] PENDIENTE KARDEX: se logro obtener el precio unitario de cada compra y su respectivo movimiento los negativos son salidas y los positivos son movimientos</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>0a097e1</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>7a5032d</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>[♦] IMCOMPLETO: NO SE TERMINO KARDEX</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>85ed0f8</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1531505</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>5b580ba</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>9f1a936</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>6faad43</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>bad185c</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>e285b72</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>9aeafda</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>7790afb</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>613a00f</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>[NULL] PENDIENTE KARDEX : solo se quedo en obtner precios de las compras nos falta obtener UEPS PEPS Promedio</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>4ce76ff</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>332f720</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>28d88a6</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>[■] MOD : routes no mostrar rutas solo el link de version</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>d5a9711</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>7d8f950</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>b51fb3d</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>d8a4322</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>8262c38</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>cf100a2</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>[◼︎] MOD: USUARIO DE PRUEBAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>b5f2ef7</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>MOD: arreglar routes</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>3be4789</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>5a87c4c</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>MOD: arreglar routes</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>fef5258</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>fd450ca</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>eliminar de routes inventarios kardexPage</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>991ae7c</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>eliminar de routes inventarios kardexPage</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>67469e9</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>4afec30</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>[■] MOD .env para develop</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>a5e2ba8</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>51f047d</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>bef63cc</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>0d3e4c2</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>[■] configuracion develop terminada - estructura usuarios de pruebas - quasar config</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>b14e001</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>cambio axios + .nev para produccion, mod services con .env, mod usuarios para pruebas locales y produccion, mod credeciales usuarios para inicialisar en desarrollo no afecta a produccion</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>99c04fd</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>cambios .env si se subira al git no se ignorara</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>91897d7</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>configuraicion develop .env, configuracion axios api, confg de services apis externas -&gt; servidor de prueva para hacer lo minimos cambios</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>67b9aa5</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>hacer cambios reporte cuentas por cobrar al generar reporte scroll se posiciona en tabla, añadir kardex a select reportes comiezo de git con ramas</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>62dbbab</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>correcciones comercial</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>3e0caaa</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>cambios comercial -NO SE TERMINO COMERCIAL- -se hizo cambios menus falta terminar reportes-</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>3a1565d</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>desarrollo ota deito credito</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>412b529</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Commmit : Solucion de Error Devolucion Venta / mejora de reportes de Venta Gris</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>7cd7d32</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Api Compra Out y Diseño Estructura Guias Interfaz Quasar y Dirver</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>a449083</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Api out ventas finalzida con los parametros optimizados</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>b451274</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>compra creditos</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>dd40fa0</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>m:correcciones comercial</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>da37a18</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Cambios Sistema correcciones primera interacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>f5c4d75</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Cambios interfaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>283842d</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Eliminar vendor del repo y agregarlo al .gitignore</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>3501c4e</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>first commit</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
           <t>9409db8</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>Ricahrd Ayca</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D241" t="inlineStr">
         <is>
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E241" t="inlineStr">
         <is>
           <t>Initialize the project 🚀</t>
         </is>

--- a/reporte_avance.xlsx
+++ b/reporte_avance.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ca3b8c8</t>
+          <t>f66fac1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fix(Main-layout) descomentar ir a dashborad</t>
+          <t>Merge pull request #37 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8dad30b</t>
+          <t>50b97d3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into develop</t>
+          <t>feat(api): agregar nuevos endpoints para la gestión de permisos de venta y campañas</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3fd0839</t>
+          <t>b7edfd5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fix(Lista responsables - Notificaciones pusher)se añadio que genere el md5 del idusario</t>
+          <t>Merge pull request #34 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>53e8435</t>
+          <t>6a366b3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Merge pull request #31 from aycaRichard12/develop</t>
+          <t>fix(ventas) solicitud ventas sin stock</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>867979b</t>
+          <t>c0c96a4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fix(compras) informacion Usuario api getPedido_</t>
+          <t>permisos venta sin stock</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4b5e95b</t>
+          <t>ca3b8c8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Merge branch 'main' into develop</t>
+          <t>fix(Main-layout) descomentar ir a dashborad</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22d7797</t>
+          <t>8dad30b</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fix(api) Update image path and enhance error handling in service controllers</t>
+          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into develop</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>36854e0</t>
+          <t>3fd0839</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fix(importacion clientes / proveedor excel)</t>
+          <t>fix(Lista responsables - Notificaciones pusher)se añadio que genere el md5 del idusario</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9a76691</t>
+          <t>53e8435</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>new(configuracion Pusher) condifugracion Backend Pusher</t>
+          <t>Merge pull request #31 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>b4f6f3d</t>
+          <t>867979b</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Merge pull request #50 from aycaRichard12/develop</t>
+          <t>fix(compras) informacion Usuario api getPedido_</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1ef5711</t>
+          <t>4b5e95b</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Merge pull request #26 from aycaRichard12/develop</t>
+          <t>Merge branch 'main' into develop</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>188b76e</t>
+          <t>22d7797</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>new(Movimientos, Servicios Pusher) Apis para movimientos en grupo</t>
+          <t>fix(api) Update image path and enhance error handling in service controllers</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>76050b6</t>
+          <t>36854e0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fix(pedidos-Movimientos)De varios pedidos con el mismo almacen destino poder crear un solo movimiento</t>
+          <t>fix(importacion clientes / proveedor excel)</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>f4b0e20</t>
+          <t>9a76691</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Merge pull request #49 from aycaRichard12/develop</t>
+          <t>new(configuracion Pusher) condifugracion Backend Pusher</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ada6c9f</t>
+          <t>b4f6f3d</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fix(compras-Mantenimiento) reportes productos proveedores - compras proveedores</t>
+          <t>Merge pull request #50 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>d355f85</t>
+          <t>1ef5711</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Merge pull request #23 from aycaRichard12/develop</t>
+          <t>Merge pull request #26 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>b3af5cc</t>
+          <t>188b76e</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Api reporte Producto Proveedor Compras</t>
+          <t>new(Movimientos, Servicios Pusher) Apis para movimientos en grupo</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9a5a445</t>
+          <t>76050b6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fix(cherry pick) rama main config para bajar los cambios desde el repositorio remoto</t>
+          <t>fix(pedidos-Movimientos)De varios pedidos con el mismo almacen destino poder crear un solo movimiento</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>250a092</t>
+          <t>f4b0e20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Merge pull request #20 from aycaRichard12/develop</t>
+          <t>Merge pull request #49 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ae68c9e</t>
+          <t>ada6c9f</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
+          <t>fix(compras-Mantenimiento) reportes productos proveedores - compras proveedores</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>379e1be</t>
+          <t>d355f85</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Merge pull request #48 from aycaRichard12/develop</t>
+          <t>Merge pull request #23 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>81b14dc</t>
+          <t>b3af5cc</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Merge pull request #19 from aycaRichard12/develop</t>
+          <t>Api reporte Producto Proveedor Compras</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1d66cf3</t>
+          <t>9a5a445</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Merge pull request #17 from aycaRichard12/develop</t>
+          <t>fix(cherry pick) rama main config para bajar los cambios desde el repositorio remoto</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>b27093f</t>
+          <t>250a092</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Merge pull request #16 from aycaRichard12/cambios-david</t>
+          <t>Merge pull request #20 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>c759e6c</t>
+          <t>ae68c9e</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>reporte compra proveedor</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>dc0766d</t>
+          <t>379e1be</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>añadir menus a develop</t>
+          <t>Merge pull request #48 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0346015</t>
+          <t>81b14dc</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Merge pull request #14 from aycaRichard12/cambios-david</t>
+          <t>Merge pull request #19 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>f52fd56</t>
+          <t>1d66cf3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>feat(reportes): add new report functions for inventory and user details</t>
+          <t>Merge pull request #17 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2266d29</t>
+          <t>b27093f</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Instalacion de los librerias para inventario exterior</t>
+          <t>Merge pull request #16 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6b05239</t>
+          <t>c759e6c</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>feat(backend inv exterior): se agrego nuevo reporte de inventario Exterior</t>
+          <t>reporte compra proveedor</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>02dcedc</t>
+          <t>dc0766d</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
+          <t>añadir menus a develop</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>59a98ca</t>
+          <t>0346015</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BLOQUEAR LA CONFIGURACION PUSHER POR AHORA</t>
+          <t>Merge pull request #14 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>74a9374</t>
+          <t>f52fd56</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Merge pull request #47 from aycaRichard12/develop</t>
+          <t>feat(reportes): add new report functions for inventory and user details</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>34ae7c2</t>
+          <t>2266d29</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Merge pull request #12 from aycaRichard12/cambios-david</t>
+          <t>Instalacion de los librerias para inventario exterior</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>d736d59</t>
+          <t>6b05239</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Merge pull request #11 from aycaRichard12/cambios-david</t>
+          <t>feat(backend inv exterior): se agrego nuevo reporte de inventario Exterior</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7007cb8</t>
+          <t>02dcedc</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>feat(autorizar operaciones): funcion para que el usuario pueda tener permiso en compras y pedidos</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>d608172</t>
+          <t>59a98ca</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fix(inventario exterior): inventario Exterior en la api listar se agrego la long lat para maps</t>
+          <t>BLOQUEAR LA CONFIGURACION PUSHER POR AHORA</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ee62ecb</t>
+          <t>74a9374</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Merge pull request #46 from aycaRichard12/develop</t>
+          <t>Merge pull request #47 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>e5217df</t>
+          <t>34ae7c2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Merge pull request #45 from aycaRichard12/cambios_pasante</t>
+          <t>Merge pull request #12 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>f6961de</t>
+          <t>d736d59</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cambio Formato de codigo</t>
+          <t>Merge pull request #11 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3aff417</t>
+          <t>7007cb8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Merge pull request #10 from aycaRichard12/cambios-david</t>
+          <t>feat(autorizar operaciones): funcion para que el usuario pueda tener permiso en compras y pedidos</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4f9a77b</t>
+          <t>d608172</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>feat(autorizaciones operaciones): modulo para dar permiso a los usuario si la operaciones cm</t>
+          <t>fix(inventario exterior): inventario Exterior en la api listar se agrego la long lat para maps</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6dbedb5</t>
+          <t>ee62ecb</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Merge pull request #9 from aycaRichard12/cambios-david</t>
+          <t>Merge pull request #46 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6296e1e</t>
+          <t>e5217df</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1573,12 +1573,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Merge pull request #8 from aycaRichard12/cambios-david</t>
+          <t>Merge pull request #45 from aycaRichard12/cambios_pasante</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>d0e8ff7</t>
+          <t>f6961de</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Merge pull request #7 from aycaRichard12/cambios-david</t>
+          <t>cambio Formato de codigo</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8dec43d</t>
+          <t>3aff417</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Merge pull request #6 from aycaRichard12/cambios-david</t>
+          <t>Merge pull request #10 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7377186</t>
+          <t>4f9a77b</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>feat(operaciones  permisos): las operaciones en cm que se podran autorizar por otro usuario o no</t>
+          <t>feat(autorizaciones operaciones): modulo para dar permiso a los usuario si la operaciones cm</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>255031b</t>
+          <t>6dbedb5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Merge pull request #5 from aycaRichard12/cambios-david</t>
+          <t>Merge pull request #9 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>868380b</t>
+          <t>6296e1e</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Merge pull request #3 from aycaRichard12/cambios-david</t>
+          <t>Merge pull request #8 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>b995c39</t>
+          <t>d0e8ff7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>docs(git): documentacion fucionar de remote app aplicacion python</t>
+          <t>Merge pull request #7 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>85d64de</t>
+          <t>8dec43d</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Merge pull request #2 from aycaRichard12/cambios-david</t>
+          <t>Merge pull request #6 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bfc8d8a</t>
+          <t>7377186</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1773,12 +1773,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>feat(soft externos backend): se añadio la api para software externos el sistema para notificaciones</t>
+          <t>feat(operaciones  permisos): las operaciones en cm que se podran autorizar por otro usuario o no</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>d9561b6</t>
+          <t>255031b</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Merge pull request #44 from aycaRichard12/develop</t>
+          <t>Merge pull request #5 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>24c46db</t>
+          <t>868380b</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1823,12 +1823,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>refactor(dialog-eliminar): agregar mensaje de eliminacion Creacion Almacen</t>
+          <t>Merge pull request #3 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>c46d0e5</t>
+          <t>b995c39</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Merge pull request #43 from aycaRichard12/develop</t>
+          <t>docs(git): documentacion fucionar de remote app aplicacion python</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>45ab8b5</t>
+          <t>85d64de</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>refactor(detalle compra): modificar posicionamiento del simboo divisa</t>
+          <t>Merge pull request #2 from aycaRichard12/cambios-david</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3511926</t>
+          <t>bfc8d8a</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>refactor(p.-precio-sugerido): modificar tabla add column medida x prod simb divisa en col cabezera</t>
+          <t>feat(soft externos backend): se añadio la api para software externos el sistema para notificaciones</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>dcebd18</t>
+          <t>d9561b6</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>refactor(p.-cunitario): modificar tabla añadir columna medida x producto divisa en colm cabezera</t>
+          <t>Merge pull request #44 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7e31079</t>
+          <t>24c46db</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>refactor(api-configuracion-precios): retornar unidad de medida enpoint p Sugerido y unitario</t>
+          <t>refactor(dialog-eliminar): agregar mensaje de eliminacion Creacion Almacen</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>129fd26</t>
+          <t>c46d0e5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>fix(proveedores): modificar btns aliniacion</t>
+          <t>Merge pull request #43 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>36ee89c</t>
+          <t>45ab8b5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>chore(pusher): servicio en la nube para gestionar conexciones con las notificaciones</t>
+          <t>refactor(detalle compra): modificar posicionamiento del simboo divisa</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0b6042e</t>
+          <t>3511926</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>info(rep-Nov-Dic): reporte avances</t>
+          <t>refactor(p.-precio-sugerido): modificar tabla add column medida x prod simb divisa en col cabezera</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>70193f8</t>
+          <t>dcebd18</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>docs(mc4-pusher): socket para notificaciones</t>
+          <t>refactor(p.-cunitario): modificar tabla añadir columna medida x producto divisa en colm cabezera</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6a0b405</t>
+          <t>7e31079</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>docs(partial-merge): como traer solo commits especificos de otro repositorio</t>
+          <t>refactor(api-configuracion-precios): retornar unidad de medida enpoint p Sugerido y unitario</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>806d175</t>
+          <t>129fd26</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>build(commitizen): herramienta que ayuda a estandarizar los mensajes de commits en git</t>
+          <t>fix(proveedores): modificar btns aliniacion</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8f99a94</t>
+          <t>36ee89c</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>docs(git-commits): guia de commits Profecionales Estructura recomendables en md</t>
+          <t>chore(pusher): servicio en la nube para gestionar conexciones con las notificaciones</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>efc80fc</t>
+          <t>0b6042e</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>docs(git-remotes) documentacion git agregar repositorios remotos al repositorio principal</t>
+          <t>info(rep-Nov-Dic): reporte avances</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>143732c</t>
+          <t>70193f8</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>fix(responsable-almacen) retornar Almacenes activos asignado y activos e inactivos : se corrigio el use store por que solo se listaba activos e inactivos , se ejecuta otro enpoint para retornar las dos listas sindo uno para nuevos registro como ventas solo los activos, la otra lista es mas para los reportes si antes estuvo activo pero se inavilito sus reportes son necesarios aunque ya esten inactivos</t>
+          <t>docs(mc4-pusher): socket para notificaciones</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>b60d003</t>
+          <t>6a0b405</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>chore(routes): Configuracion rutas el historial del router segun entorno (SRC/SPA) Y modo (history / hash)</t>
+          <t>docs(partial-merge): como traer solo commits especificos de otro repositorio</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bba8abf</t>
+          <t>806d175</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Merge pull request #42 from aycaRichard12/develop</t>
+          <t>build(commitizen): herramienta que ayuda a estandarizar los mensajes de commits en git</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ad36443</t>
+          <t>8f99a94</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Se mejoro la funcion UseAlmacenStore para devolver las dos respuesta de dos empoints que son endpoint1 = listaResponsableAlmacenReportes/ endpoint2 = listaResponsableAlmacen/</t>
+          <t>docs(git-commits): guia de commits Profecionales Estructura recomendables en md</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>e6ad549</t>
+          <t>efc80fc</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Merge pull request #41 from aycaRichard12/develop</t>
+          <t>docs(git-remotes) documentacion git agregar repositorios remotos al repositorio principal</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8b9182f</t>
+          <t>143732c</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>finalizar filtrado Cuentas por cobrar con filtrado individual por columna con condicionales</t>
+          <t>fix(responsable-almacen) retornar Almacenes activos asignado y activos e inactivos : se corrigio el use store por que solo se listaba activos e inactivos , se ejecuta otro enpoint para retornar las dos listas sindo uno para nuevos registro como ventas solo los activos, la otra lista es mas para los reportes si antes estuvo activo pero se inavilito sus reportes son necesarios aunque ya esten inactivos</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>c9fa064</t>
+          <t>b60d003</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2323,12 +2323,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Registrar Credito Cotizacion, tabla armar qr en la tabla</t>
+          <t>chore(routes): Configuracion rutas el historial del router segun entorno (SRC/SPA) Y modo (history / hash)</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>59eb867</t>
+          <t>bba8abf</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Merge pull request #40 from aycaRichard12/develop</t>
+          <t>Merge pull request #42 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>a49df34</t>
+          <t>ad36443</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Cambiar Registrar Categoria Precio a submenu Creacion</t>
+          <t>Se mejoro la funcion UseAlmacenStore para devolver las dos respuesta de dos empoints que son endpoint1 = listaResponsableAlmacenReportes/ endpoint2 = listaResponsableAlmacen/</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>c2abaec</t>
+          <t>e6ad549</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Merge pull request #39 from aycaRichard12/develop</t>
+          <t>Merge pull request #41 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>66aafa6</t>
+          <t>8b9182f</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Asignar Categoria Precio a almacen, agregar credito Cotizacion</t>
+          <t>finalizar filtrado Cuentas por cobrar con filtrado individual por columna con condicionales</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5b93635</t>
+          <t>c9fa064</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Merge pull request #38 from aycaRichard12/develop</t>
+          <t>Registrar Credito Cotizacion, tabla armar qr en la tabla</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>4eae866</t>
+          <t>59eb867</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2473,12 +2473,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Arreglar Facturacion descuentos, Reportes estilo Excel mejorar los get columnas</t>
+          <t>Merge pull request #40 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>9b7fd58</t>
+          <t>a49df34</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2498,12 +2498,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Merge pull request #37 from aycaRichard12/develop</t>
+          <t>Cambiar Registrar Categoria Precio a submenu Creacion</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2bec562</t>
+          <t>c2abaec</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Filtracion implementado en reportes gestion Ventas, Gestion Cotizacion</t>
+          <t>Merge pull request #39 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>f5be112</t>
+          <t>66aafa6</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Se arreglo el filtrado de los almacenes y se implemento para filtrado general</t>
+          <t>Asignar Categoria Precio a almacen, agregar credito Cotizacion</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>75a8bec</t>
+          <t>5b93635</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2573,12 +2573,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
+          <t>Merge pull request #38 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16f3326</t>
+          <t>4eae866</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2598,12 +2598,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Merge pull request #36 from aycaRichard12/develop</t>
+          <t>Arreglar Facturacion descuentos, Reportes estilo Excel mejorar los get columnas</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>b9ab466</t>
+          <t>9b7fd58</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2623,12 +2623,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>listar almacenes activos al hacer una transaccion en compra, venta, cotizacion, merma, extrabio pero en reportes mostrar todos los almacenes, mostrar en detalle compra al añadir un producto al carrito su medida, correcciones comercial en general</t>
+          <t>Merge pull request #37 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ebb7cf7</t>
+          <t>2bec562</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Se agrego la funcion de cerrar los reportes PDFs con ECS</t>
+          <t>Filtracion implementado en reportes gestion Ventas, Gestion Cotizacion</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>227f72c</t>
+          <t>f5be112</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Anular out Factura</t>
+          <t>Se arreglo el filtrado de los almacenes y se implemento para filtrado general</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0f88213</t>
+          <t>75a8bec</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2698,12 +2698,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Merge pull request #35 from aycaRichard12/develop</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3318ec5</t>
+          <t>16f3326</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SE QUITO LA VALIDACION DE FACTUA SIN, SE REIMPLANTARA POSTERIORMENTE</t>
+          <t>Merge pull request #36 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>9b469e9</t>
+          <t>b9ab466</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2748,12 +2748,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Merge pull request #34 from aycaRichard12/develop</t>
+          <t>listar almacenes activos al hacer una transaccion en compra, venta, cotizacion, merma, extrabio pero en reportes mostrar todos los almacenes, mostrar en detalle compra al añadir un producto al carrito su medida, correcciones comercial en general</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ed0f4b0</t>
+          <t>ebb7cf7</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>desarrollo de devolucion de venta</t>
+          <t>Se agrego la funcion de cerrar los reportes PDFs con ECS</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7e0f433</t>
+          <t>227f72c</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Merge pull request #33 from aycaRichard12/develop</t>
+          <t>Anular out Factura</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>c9a2aef</t>
+          <t>0f88213</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Correcciones reportes PDF</t>
+          <t>Merge pull request #35 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>e3ffb9e</t>
+          <t>3318ec5</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2848,12 +2848,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Merge pull request #32 from aycaRichard12/develop</t>
+          <t>SE QUITO LA VALIDACION DE FACTUA SIN, SE REIMPLANTARA POSTERIORMENTE</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>c8bcf11</t>
+          <t>9b469e9</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>correcciones Informe PDFs</t>
+          <t>Merge pull request #34 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ac108c7</t>
+          <t>ed0f4b0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2898,12 +2898,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Merge pull request #31 from aycaRichard12/develop</t>
+          <t>desarrollo de devolucion de venta</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>8ce9d82</t>
+          <t>7e0f433</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2923,12 +2923,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[•] modificaciones Reporte modelo PDF</t>
+          <t>Merge pull request #33 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1de06f0</t>
+          <t>c9a2aef</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Merge pull request #30 from aycaRichard12/develop</t>
+          <t>Correcciones reportes PDF</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5573204</t>
+          <t>e3ffb9e</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2973,12 +2973,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Merge pull request #29 from aycaRichard12/F_correcciones_comercial</t>
+          <t>Merge pull request #32 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>45bf567</t>
+          <t>c8bcf11</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2998,12 +2998,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>correcciones Comercial</t>
+          <t>correcciones Informe PDFs</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5b9ae78</t>
+          <t>ac108c7</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[•] se agrego el modelo nuevo de reportes PDF general, los reportes que se desarrollo en su propio pagina o componente en un principio mover a reportes global</t>
+          <t>Merge pull request #31 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>e471fe0</t>
+          <t>8ce9d82</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3048,12 +3048,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025-11-22</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Merge pull request #28 from aycaRichard12/F_correcciones_comercial</t>
+          <t>[•] modificaciones Reporte modelo PDF</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ec2d3b7</t>
+          <t>1de06f0</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025-11-22</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Correcciones cotizacion Facturacion</t>
+          <t>Merge pull request #30 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>573c017</t>
+          <t>5573204</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3098,12 +3098,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[CORRECCIONES] añadir cabezera en reporte pdf extravio y merma datos del usuario y datos de la merma o extravio con fecha de impresion</t>
+          <t>Merge pull request #29 from aycaRichard12/F_correcciones_comercial</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2ff0646</t>
+          <t>45bf567</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[CORRECCIONES] mostrar en reportes mermas y extrabios un modal de los detalles de los productos registrados en caso de un extravio o un robo</t>
+          <t>correcciones Comercial</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>d157595</t>
+          <t>5b9ae78</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Merge pull request #27 from aycaRichard12/develop</t>
+          <t>[•] se agrego el modelo nuevo de reportes PDF general, los reportes que se desarrollo en su propio pagina o componente en un principio mover a reportes global</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>33187f2</t>
+          <t>e471fe0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Merge pull request #26 from aycaRichard12/F_cotizacion_devolucion</t>
+          <t>Merge pull request #28 from aycaRichard12/F_correcciones_comercial</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>8ddc7c5</t>
+          <t>ec2d3b7</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3198,12 +3198,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[DEVOLUCION COTIZACION] - ADD DEVOLUCION COTIZACION REGISTRO DE DETALLE DEVOLUCION , AUTORIZACION DE STOCK DEVOLUCION COTIZACION, CAMBIOS REPORTES COTIZACION PARA QUE APARESCA CON ESTADO DEV NO FACTURABLE, VER COTIZACION EN DEVOLUCIONES EN REPORTE CONTINGENCIAS Y PODER VER EN COTIZACIONES, SE AÑADIO EN NOTACREDITODEBITO EL TIPO DE DOCUMENTO QUE ES UNA VENTA FACTURADA</t>
+          <t>Correcciones cotizacion Facturacion</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>9fcacac</t>
+          <t>573c017</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SE SACO REPORTE PARA INFORME DE AVANCE, SE AÑADIO TIPO DE CAMBIO CON TOTAL</t>
+          <t>[CORRECCIONES] añadir cabezera en reporte pdf extravio y merma datos del usuario y datos de la merma o extravio con fecha de impresion</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>c95656c</t>
+          <t>2ff0646</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3248,12 +3248,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>añadir anular Cotizacion en cuentas Sin Factura</t>
+          <t>[CORRECCIONES] mostrar en reportes mermas y extrabios un modal de los detalles de los productos registrados en caso de un extravio o un robo</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0b77139</t>
+          <t>d157595</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Merge pull request #25 from aycaRichard12/develop</t>
+          <t>Merge pull request #27 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>9763c03</t>
+          <t>33187f2</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>registrar precio sugerido que afecte a todos los almacenes, actulizar tabla compra al registrar automaticamente filtrar del almacen registrodo,visualizar la factura despues de registrar en factura , factura exportacion , factura alquiler, bug mostrar reporte pdf de compras por almacen</t>
+          <t>Merge pull request #26 from aycaRichard12/F_cotizacion_devolucion</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>650c24d</t>
+          <t>8ddc7c5</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Merge pull request #24 from aycaRichard12/develop</t>
+          <t>[DEVOLUCION COTIZACION] - ADD DEVOLUCION COTIZACION REGISTRO DE DETALLE DEVOLUCION , AUTORIZACION DE STOCK DEVOLUCION COTIZACION, CAMBIOS REPORTES COTIZACION PARA QUE APARESCA CON ESTADO DEV NO FACTURABLE, VER COTIZACION EN DEVOLUCIONES EN REPORTE CONTINGENCIAS Y PODER VER EN COTIZACIONES, SE AÑADIO EN NOTACREDITODEBITO EL TIPO DE DOCUMENTO QUE ES UNA VENTA FACTURADA</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>44260ca</t>
+          <t>9fcacac</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3348,12 +3348,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>se normalizo useCotizacion que se trajabaron de prueba respuesta de emizor por defecto se quito se añadio el simbolo de moneda en reporte ventas hoy, se añadio eniviar por correo el comprobante o la factura de impuesto tambien al facturar una cotizacion se podra ver la factura despues, se mejoro el reporte para que un link de un pdf sea enviado por correo</t>
+          <t>SE SACO REPORTE PARA INFORME DE AVANCE, SE AÑADIO TIPO DE CAMBIO CON TOTAL</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>a136883</t>
+          <t>c95656c</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3373,12 +3373,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Merge pull request #23 from aycaRichard12/develop</t>
+          <t>añadir anular Cotizacion en cuentas Sin Factura</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>6590116</t>
+          <t>0b77139</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Arreglar cosigo sin producto, cotizacion facurar de normal y preferencial cambios de estado 2 facturado y no se puede facturar 2 veces</t>
+          <t>Merge pull request #25 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>8ab1917</t>
+          <t>9763c03</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Merge pull request #22 from aycaRichard12/develop</t>
+          <t>registrar precio sugerido que afecte a todos los almacenes, actulizar tabla compra al registrar automaticamente filtrar del almacen registrodo,visualizar la factura despues de registrar en factura , factura exportacion , factura alquiler, bug mostrar reporte pdf de compras por almacen</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>b8cc5cb</t>
+          <t>650c24d</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3448,12 +3448,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>en App se quito la comparacion du usuario</t>
+          <t>Merge pull request #24 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>28f2bf8</t>
+          <t>44260ca</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3473,12 +3473,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Merge pull request #21 from aycaRichard12/develop</t>
+          <t>se normalizo useCotizacion que se trajabaron de prueba respuesta de emizor por defecto se quito se añadio el simbolo de moneda en reporte ventas hoy, se añadio eniviar por correo el comprobante o la factura de impuesto tambien al facturar una cotizacion se podra ver la factura despues, se mejoro el reporte para que un link de un pdf sea enviado por correo</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>25a40d2</t>
+          <t>a136883</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3498,12 +3498,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Cambios Factura Exportacion add tipo cambio dinamico</t>
+          <t>Merge pull request #23 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>63d4433</t>
+          <t>6590116</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3523,12 +3523,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>cotizacion facturar cotizacion Normal , arreglo facturacion Comercializacion</t>
+          <t>Arreglar cosigo sin producto, cotizacion facurar de normal y preferencial cambios de estado 2 facturado y no se puede facturar 2 veces</t>
         </is>
       </c>
     </row>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>b74c208</t>
+          <t>8ab1917</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Merge pull request #20 from aycaRichard12/develop</t>
+          <t>Merge pull request #22 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>c07fefa</t>
+          <t>b8cc5cb</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3573,12 +3573,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>comando por voz, correcciones comercial interfaz , se añadio filtro excel en almacen</t>
+          <t>en App se quito la comparacion du usuario</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>b143628</t>
+          <t>28f2bf8</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3598,12 +3598,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Merge pull request #19 from aycaRichard12/develop</t>
+          <t>Merge pull request #21 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>c81402a</t>
+          <t>25a40d2</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3623,12 +3623,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Se arreglo cambio de estado merma</t>
+          <t>Cambios Factura Exportacion add tipo cambio dinamico</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>3004e31</t>
+          <t>63d4433</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3648,12 +3648,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Se arreglo cambio de estado robo</t>
+          <t>cotizacion facturar cotizacion Normal , arreglo facturacion Comercializacion</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>4218a69</t>
+          <t>b74c208</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3673,12 +3673,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Merge pull request #18 from aycaRichard12/develop</t>
+          <t>Merge pull request #20 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2472148</t>
+          <t>c07fefa</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3698,12 +3698,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[•] Añadir cambios anulacion cotizacion, pdf con sangria Anulado, fitrado tabla similar excel</t>
+          <t>comando por voz, correcciones comercial interfaz , se añadio filtro excel en almacen</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>3c3f990</t>
+          <t>b143628</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3723,12 +3723,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Se Actualizo bugs de errores de cotizacion como por ejemplo estado solo hay dos 0 y 1 que significa NORMAL y PREFERENCIAL y se añadio en la base de datos una columna condicion para ver si esta activa o anulada la cotizacion se realizo las pruebas respectivas, se separo la logica en 2 variables estado y condicion</t>
+          <t>Merge pull request #19 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>be62e5c</t>
+          <t>c81402a</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3748,12 +3748,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Merge pull request #17 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
+          <t>Se arreglo cambio de estado merma</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>5a0ab7a</t>
+          <t>3004e31</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[•] ANULAR COTIZACION DE COMERCIAL, MOSTRAR EN PDF ESPECIFICAMENTE EL DOCUMENTO ANULADO LA SANGRIA</t>
+          <t>Se arreglo cambio de estado robo</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>e451dc9</t>
+          <t>4218a69</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
+          <t>Merge pull request #18 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2fa385f</t>
+          <t>2472148</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[•] Configuracion Inicial</t>
+          <t>[•] Añadir cambios anulacion cotizacion, pdf con sangria Anulado, fitrado tabla similar excel</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>a26a606</t>
+          <t>3c3f990</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3848,12 +3848,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Merge pull request #16 from aycaRichard12/develop</t>
+          <t>Se Actualizo bugs de errores de cotizacion como por ejemplo estado solo hay dos 0 y 1 que significa NORMAL y PREFERENCIAL y se añadio en la base de datos una columna condicion para ver si esta activa o anulada la cotizacion se realizo las pruebas respectivas, se separo la logica en 2 variables estado y condicion</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>e40fe0e</t>
+          <t>be62e5c</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3873,12 +3873,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Merge pull request #15 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
+          <t>Merge pull request #17 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
         </is>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>e5209e4</t>
+          <t>5a0ab7a</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[•] Añadir la opcion de que sea opcional el especificar el lote de la compra al registrar ROBOS y MERMAS</t>
+          <t>[•] ANULAR COTIZACION DE COMERCIAL, MOSTRAR EN PDF ESPECIFICAMENTE EL DOCUMENTO ANULADO LA SANGRIA</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1175a19</t>
+          <t>e451dc9</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3923,12 +3923,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Merge pull request #14 from aycaRichard12/Feacture-Correcciones</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>bdef3d7</t>
+          <t>2fa385f</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3948,12 +3948,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[•] botones asignar almacen alineados en fila</t>
+          <t>[•] Configuracion Inicial</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>4c4c7c6</t>
+          <t>a26a606</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3973,12 +3973,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[•] Crear titulos para asignar almacen asignar punto de venta y asignar productos</t>
+          <t>Merge pull request #16 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>5aac9fd</t>
+          <t>e40fe0e</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3998,12 +3998,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[•] Colocar Iconos a paginas de pedidos</t>
+          <t>Merge pull request #15 from aycaRichard12/Feacture-Anulacion-Cotizacion</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>f45fc46</t>
+          <t>e5209e4</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[•] Etiquetas a botones de MOvimientos cambiar icon de carrito</t>
+          <t>[•] Añadir la opcion de que sea opcional el especificar el lote de la compra al registrar ROBOS y MERMAS</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>d87b7cf</t>
+          <t>1175a19</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[•] Movimientos muestra de forma ordenada columna N°</t>
+          <t>Merge pull request #14 from aycaRichard12/Feacture-Correcciones</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>553336b</t>
+          <t>bdef3d7</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Merge pull request #13 from aycaRichard12/develop</t>
+          <t>[•] botones asignar almacen alineados en fila</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>d661372</t>
+          <t>4c4c7c6</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[•] Finalizacion obtener token del emizor para la venta out</t>
+          <t>[•] Crear titulos para asignar almacen asignar punto de venta y asignar productos</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>e82f119</t>
+          <t>5aac9fd</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4123,12 +4123,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Merge pull request #12 from aycaRichard12/develop</t>
+          <t>[•] Colocar Iconos a paginas de pedidos</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>3b28f38</t>
+          <t>f45fc46</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[•] registrar venta por una ruta diferente en php out/venta metodo POST simplificar endpoint venta para la pagina web ya se hizo la prueba</t>
+          <t>[•] Etiquetas a botones de MOvimientos cambiar icon de carrito</t>
         </is>
       </c>
     </row>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>dd75382</t>
+          <t>d87b7cf</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4173,12 +4173,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[•] ACTUALIZAR apis exteriores para comercial y que funciones bien</t>
+          <t>[•] Movimientos muestra de forma ordenada columna N°</t>
         </is>
       </c>
     </row>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>cea6f96</t>
+          <t>553336b</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Merge pull request #11 from aycaRichard12/develop</t>
+          <t>Merge pull request #13 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1dbbaed</t>
+          <t>d661372</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Merge pull request #10 from aycaRichard12/Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
+          <t>[•] Finalizacion obtener token del emizor para la venta out</t>
         </is>
       </c>
     </row>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>b182dc3</t>
+          <t>e82f119</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4248,12 +4248,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[•] Finalizacion de kardex entrara a rebicion: se modifico el metodo PROMEDIO para hacer las calculos respectivos se arreglo el bug de los reposrtes en pdf</t>
+          <t>Merge pull request #12 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>07716be</t>
+          <t>3b28f38</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4273,12 +4273,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
+          <t>[•] registrar venta por una ruta diferente en php out/venta metodo POST simplificar endpoint venta para la pagina web ya se hizo la prueba</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>3ac0785</t>
+          <t>dd75382</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4298,12 +4298,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[] PEPS KARDEX SE AÑADIO FORMA DE VER LOS SALDOS PENDIENTES EN LA TABLA PARA PODER IMPRIMIR</t>
+          <t>[•] ACTUALIZAR apis exteriores para comercial y que funciones bien</t>
         </is>
       </c>
     </row>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>62a20fb</t>
+          <t>cea6f96</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[󐊮] INSERTAR: SE INSERTO A COTIZACION PODER LISTAR PUNTOS DE VENTAS SIN CODIGOSIN PARA LOS COMPROBANTES</t>
+          <t>Merge pull request #11 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>10018ef</t>
+          <t>1dbbaed</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4348,12 +4348,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[󐊮] UPDATE KARDEX : se mejoro la consulta a la base de datos y en la api se añadio en el metodo pepes como obtener los precios unitarios y tambien las ventas divididas con diferentes precios por cliente ahora nos toca trabajar en frontend para filtrar de la fecha inicial a la fecha final</t>
+          <t>Merge pull request #10 from aycaRichard12/Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>87eb59c</t>
+          <t>b182dc3</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4373,12 +4373,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[󐊮] BUG:no registraba ventas errores que salia es que el ticketFactura ya se habia registrado : error la venta prueba se registraba en impuestos pero no se registraba en mistersoft solucion : se clono ventas para simular que se registraron , se agrego trasabilidad de los extrabios y se registrar el origen en el stock que seria de la compra</t>
+          <t>[•] Finalizacion de kardex entrara a rebicion: se modifico el metodo PROMEDIO para hacer las calculos respectivos se arreglo el bug de los reposrtes en pdf</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>429f7b1</t>
+          <t>07716be</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4398,12 +4398,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo marge automatico</t>
+          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>79ec238</t>
+          <t>3ac0785</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4423,12 +4423,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
+          <t>[] PEPS KARDEX SE AÑADIO FORMA DE VER LOS SALDOS PENDIENTES EN LA TABLA PARA PODER IMPRIMIR</t>
         </is>
       </c>
     </row>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>be2eeca</t>
+          <t>62a20fb</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[񯢔] CAMBIO EN MAIN BAJARSE EN CADA REPOSITORIO : Se añadio el modal para registrar el punto de vent</t>
+          <t>[󐊮] INSERTAR: SE INSERTO A COTIZACION PODER LISTAR PUNTOS DE VENTAS SIN CODIGOSIN PARA LOS COMPROBANTES</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>f6fb50b</t>
+          <t>10018ef</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[♦] se añadio trasabilidad en los movimientos de los productos esta en revision si funciona o hay conflicto con otras funciones</t>
+          <t>[󐊮] UPDATE KARDEX : se mejoro la consulta a la base de datos y en la api se añadio en el metodo pepes como obtener los precios unitarios y tambien las ventas divididas con diferentes precios por cliente ahora nos toca trabajar en frontend para filtrar de la fecha inicial a la fecha final</t>
         </is>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>66c4346</t>
+          <t>87eb59c</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Merge pull request #9 from aycaRichard12/develop</t>
+          <t>[󐊮] BUG:no registraba ventas errores que salia es que el ticketFactura ya se habia registrado : error la venta prueba se registraba en impuestos pero no se registraba en mistersoft solucion : se clono ventas para simular que se registraron , se agrego trasabilidad de los extrabios y se registrar el origen en el stock que seria de la compra</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>4dcd9af</t>
+          <t>429f7b1</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4523,12 +4523,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[•] funciones para sacar reportes de los commits</t>
+          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture_Kardex_saldo_inicial_x_lotes_con_saldo marge automatico</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>45fd896</t>
+          <t>79ec238</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4548,12 +4548,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Merge pull request #8 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
+          <t>Merge branch 'main' of github.com:aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ff5c859</t>
+          <t>be2eeca</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4573,12 +4573,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>[•] agregar marge adevelop</t>
+          <t>[񯢔] CAMBIO EN MAIN BAJARSE EN CADA REPOSITORIO : Se añadio el modal para registrar el punto de vent</t>
         </is>
       </c>
     </row>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>76114b3</t>
+          <t>f6fb50b</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4598,12 +4598,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Merge pull request #7 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
+          <t>[♦] se añadio trasabilidad en los movimientos de los productos esta en revision si funciona o hay conflicto con otras funciones</t>
         </is>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>5d0f3c8</t>
+          <t>66c4346</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>[•] Se añadio punto de venta a cotizaion y se muestra en los reportes tanto de venta y cotizacion</t>
+          <t>Merge pull request #9 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>15d5fd2</t>
+          <t>4dcd9af</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4648,12 +4648,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>[♦] PENDIENTE: SE AGREGO PUNTO DE VENTA A LOS REPORTES DE VENTAY SE REGISTRA EL PUNTO DE VENTA EN CADA COTIZACION Y SE ESTA VIENDO COLOCAR EL PUNTO DE VENTA EN LOS REPOSRTE Y FALTA REGISTRO DE ALMACEN</t>
+          <t>[•] funciones para sacar reportes de los commits</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>36e9e6d</t>
+          <t>45fd896</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4673,12 +4673,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Merge pull request #6 from aycaRichard12/develop</t>
+          <t>Merge pull request #8 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
         </is>
       </c>
     </row>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>da93671</t>
+          <t>ff5c859</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4698,12 +4698,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Merge pull request #5 from aycaRichard12/Feacture-Cotizacion_Detalle_Adicional_Cotizacion</t>
+          <t>[•] agregar marge adevelop</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>0b50aa7</t>
+          <t>76114b3</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4723,12 +4723,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>[•] GOOD: se añadio descripcion adicional a cotizacion preferencial o normal en carrito para especificar los servicios tambien se añadio numero factura o ducumento a cotizaion tambien se muestra en los reportes dichos cambios</t>
+          <t>Merge pull request #7 from aycaRichard12/Feacture-punto_de_venta_cotizacion_facturacion</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>d5cf671</t>
+          <t>5d0f3c8</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Merge pull request #4 from aycaRichard12/develop</t>
+          <t>[•] Se añadio punto de venta a cotizaion y se muestra en los reportes tanto de venta y cotizacion</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>feb7ab7</t>
+          <t>15d5fd2</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4773,12 +4773,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Merge pull request #3 from aycaRichard12/Feacture-Detalle_Venta_Cotizacion</t>
+          <t>[♦] PENDIENTE: SE AGREGO PUNTO DE VENTA A LOS REPORTES DE VENTAY SE REGISTRA EL PUNTO DE VENTA EN CADA COTIZACION Y SE ESTA VIENDO COLOCAR EL PUNTO DE VENTA EN LOS REPOSRTE Y FALTA REGISTRO DE ALMACEN</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>0225d73</t>
+          <t>36e9e6d</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4798,12 +4798,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>[•] Se agrego descripcion adicional en carrito fenta finalizado</t>
+          <t>Merge pull request #6 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>89d2b1b</t>
+          <t>da93671</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4823,12 +4823,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>[•] Se añadio descripcion adicional en carrito ventas debajo de descripcion del producto</t>
+          <t>Merge pull request #5 from aycaRichard12/Feacture-Cotizacion_Detalle_Adicional_Cotizacion</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2caed0c</t>
+          <t>0b50aa7</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4848,12 +4848,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>[◘] DEJAR DE RASTREAR .ENV EN DEVELOP</t>
+          <t>[•] GOOD: se añadio descripcion adicional a cotizacion preferencial o normal en carrito para especificar los servicios tambien se añadio numero factura o ducumento a cotizaion tambien se muestra en los reportes dichos cambios</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>21063fe</t>
+          <t>d5cf671</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>[◘] DEJAR DE RASTREAR EL .ENV</t>
+          <t>Merge pull request #4 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>3f1f7ca</t>
+          <t>feb7ab7</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4898,12 +4898,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial</t>
+          <t>Merge pull request #3 from aycaRichard12/Feacture-Detalle_Venta_Cotizacion</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>a70e993</t>
+          <t>0225d73</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4923,12 +4923,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>[♦♦] CONFIG: gitignore</t>
+          <t>[•] Se agrego descripcion adicional en carrito fenta finalizado</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>3b8119a</t>
+          <t>89d2b1b</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Merge pull request #2 from aycaRichard12/develop</t>
+          <t>[•] Se añadio descripcion adicional en carrito ventas debajo de descripcion del producto</t>
         </is>
       </c>
     </row>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ac09b1b</t>
+          <t>2caed0c</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Merge branch 'main' into develop</t>
+          <t>[◘] DEJAR DE RASTREAR .ENV EN DEVELOP</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>8c87406</t>
+          <t>21063fe</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Merge pull request #1 from aycaRichard12/Feacture-kardex</t>
+          <t>[◘] DEJAR DE RASTREAR EL .ENV</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>40d7dc7</t>
+          <t>3f1f7ca</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture-kardex</t>
+          <t>Merge branch 'main' of https://github.com/aycaRichard12/Ms_comercial</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>8627407</t>
+          <t>a70e993</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5048,12 +5048,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>[•] Completado editar saldos eliminar y modal desplegable de los saldos de un producto seleccionado</t>
+          <t>[♦♦] CONFIG: gitignore</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>b1c23da</t>
+          <t>3b8119a</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5073,12 +5073,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+          <t>Merge pull request #2 from aycaRichard12/develop</t>
         </is>
       </c>
     </row>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2578a08</t>
+          <t>ac09b1b</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5098,12 +5098,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>Merge branch 'main' into develop</t>
         </is>
       </c>
     </row>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>92c2751</t>
+          <t>8c87406</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5123,12 +5123,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
+          <t>Merge pull request #1 from aycaRichard12/Feacture-kardex</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>af8a9eb</t>
+          <t>40d7dc7</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>[•] Iyeccion mistersoft esta fallando venta</t>
+          <t>Merge branch 'develop' of https://github.com/aycaRichard12/Ms_comercial into Feacture-kardex</t>
         </is>
       </c>
     </row>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>bd7bea8</t>
+          <t>8627407</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5173,12 +5173,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>[♦] Imcompleto cardex para mostrar detalle de saldo final</t>
+          <t>[•] Completado editar saldos eliminar y modal desplegable de los saldos de un producto seleccionado</t>
         </is>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>d331fac</t>
+          <t>b1c23da</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5198,12 +5198,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>[♦] PENDIENTE KARDEX: se logro obtener el precio unitario de cada compra y su respectivo movimiento los negativos son salidas y los positivos son movimientos</t>
+          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>0a097e1</t>
+          <t>2578a08</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>7a5032d</t>
+          <t>92c2751</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>[♦] IMCOMPLETO: NO SE TERMINO KARDEX</t>
+          <t>[♦] BUG MENU: se aumento en la funcion selectSubmenu otro else if para validar que si no tiene paginas el submenu entonces enrutar a la base del menu</t>
         </is>
       </c>
     </row>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>85ed0f8</t>
+          <t>af8a9eb</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5273,12 +5273,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
+          <t>[•] Iyeccion mistersoft esta fallando venta</t>
         </is>
       </c>
     </row>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>1531505</t>
+          <t>bd7bea8</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>[♦] Imcompleto cardex para mostrar detalle de saldo final</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>5b580ba</t>
+          <t>d331fac</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5323,12 +5323,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
+          <t>[♦] PENDIENTE KARDEX: se logro obtener el precio unitario de cada compra y su respectivo movimiento los negativos son salidas y los positivos son movimientos</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>9f1a936</t>
+          <t>0a097e1</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5348,12 +5348,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>6faad43</t>
+          <t>7a5032d</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5373,12 +5373,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+          <t>[♦] IMCOMPLETO: NO SE TERMINO KARDEX</t>
         </is>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>bad185c</t>
+          <t>85ed0f8</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5398,12 +5398,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
+          <t>[•] BUG: correccion bug componente venta se mostraba a inicio sesion apezar de que no tenia permisos para mostrar</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>e285b72</t>
+          <t>1531505</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>9aeafda</t>
+          <t>5b580ba</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7790afb</t>
+          <t>9f1a936</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>613a00f</t>
+          <t>6faad43</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5498,12 +5498,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>[NULL] PENDIENTE KARDEX : solo se quedo en obtner precios de las compras nos falta obtener UEPS PEPS Promedio</t>
+          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
         </is>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>4ce76ff</t>
+          <t>bad185c</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
         </is>
       </c>
     </row>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>332f720</t>
+          <t>e285b72</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5548,12 +5548,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+          <t>[•] BUG PERMISOS DE MENUS: se quito el direcionamiento automatico to:/ solo se opto por el @click</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>28d88a6</t>
+          <t>9aeafda</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5573,12 +5573,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>[■] MOD : routes no mostrar rutas solo el link de version</t>
+          <t>[•] COMPRA: modificar los btns reposrtes en select</t>
         </is>
       </c>
     </row>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>d5a9711</t>
+          <t>7790afb</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5598,12 +5598,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
+          <t>[•] FINALIZACION FACTURA NOTA CREDITO: modificacion backen nota-credito - venta, modificacion front end combinar con contingencia</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>7d8f950</t>
+          <t>613a00f</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5623,12 +5623,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+          <t>[NULL] PENDIENTE KARDEX : solo se quedo en obtner precios de las compras nos falta obtener UEPS PEPS Promedio</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>b51fb3d</t>
+          <t>4ce76ff</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+          <t>[●] cambio tarjeta venta inicio a Resgistrar Venta</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>d8a4322</t>
+          <t>332f720</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
+          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>8262c38</t>
+          <t>28d88a6</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
+          <t>[■] MOD : routes no mostrar rutas solo el link de version</t>
         </is>
       </c>
     </row>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>cf100a2</t>
+          <t>d5a9711</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>[◼︎] MOD: USUARIO DE PRUEBAS</t>
+          <t>[■] MOD: Configuracion de TITLE PESTAÑA COMERCIAL y AUTOMATICO NOMBRE DE LA EMPRESA</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>b5f2ef7</t>
+          <t>7d8f950</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5748,12 +5748,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>MOD: arreglar routes</t>
+          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>3be4789</t>
+          <t>b51fb3d</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5773,12 +5773,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>5a87c4c</t>
+          <t>d8a4322</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5798,12 +5798,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>MOD: arreglar routes</t>
+          <t>[●] MOD: actualizar tabla despues de registrar credito compra</t>
         </is>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>fef5258</t>
+          <t>8262c38</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
+          <t>[●] MOD: no permite registrar dos veces para la misma compra</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>fd450ca</t>
+          <t>cf100a2</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5848,12 +5848,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>eliminar de routes inventarios kardexPage</t>
+          <t>[◼︎] MOD: USUARIO DE PRUEBAS</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>991ae7c</t>
+          <t>b5f2ef7</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5873,12 +5873,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>eliminar de routes inventarios kardexPage</t>
+          <t>MOD: arreglar routes</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>67469e9</t>
+          <t>3be4789</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5898,12 +5898,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>4afec30</t>
+          <t>5a87c4c</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>[■] MOD .env para develop</t>
+          <t>MOD: arreglar routes</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>a5e2ba8</t>
+          <t>fef5258</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
+          <t>[☺] MOD: REPORTE MERMA Y EXTRAVIO Y SELECT REPORTE</t>
         </is>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>51f047d</t>
+          <t>fd450ca</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+          <t>eliminar de routes inventarios kardexPage</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>bef63cc</t>
+          <t>991ae7c</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
+          <t>eliminar de routes inventarios kardexPage</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>0d3e4c2</t>
+          <t>67469e9</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>[■] configuracion develop terminada - estructura usuarios de pruebas - quasar config</t>
+          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>b14e001</t>
+          <t>4afec30</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6048,12 +6048,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>cambio axios + .nev para produccion, mod services con .env, mod usuarios para pruebas locales y produccion, mod credeciales usuarios para inicialisar en desarrollo no afecta a produccion</t>
+          <t>[■] MOD .env para develop</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>99c04fd</t>
+          <t>a5e2ba8</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6073,12 +6073,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>cambios .env si se subira al git no se ignorara</t>
+          <t>[☺] Mod : cerrar modal (registrar usuario responsable) despues de registrar - cambiar label btn de guardar por aprobado</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>91897d7</t>
+          <t>51f047d</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6098,12 +6098,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>configuraicion develop .env, configuracion axios api, confg de services apis externas -&gt; servidor de prueva para hacer lo minimos cambios</t>
+          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
         </is>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>67b9aa5</t>
+          <t>bef63cc</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6123,12 +6123,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>hacer cambios reporte cuentas por cobrar al generar reporte scroll se posiciona en tabla, añadir kardex a select reportes comiezo de git con ramas</t>
+          <t>[○] -&gt; Mod Filtrado precio sugerido, Filtrado costo unitaro DC : fitrar a inicio</t>
         </is>
       </c>
     </row>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>62dbbab</t>
+          <t>0d3e4c2</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6148,12 +6148,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>correcciones comercial</t>
+          <t>[■] configuracion develop terminada - estructura usuarios de pruebas - quasar config</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>3e0caaa</t>
+          <t>b14e001</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6173,12 +6173,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>cambios comercial -NO SE TERMINO COMERCIAL- -se hizo cambios menus falta terminar reportes-</t>
+          <t>cambio axios + .nev para produccion, mod services con .env, mod usuarios para pruebas locales y produccion, mod credeciales usuarios para inicialisar en desarrollo no afecta a produccion</t>
         </is>
       </c>
     </row>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>3a1565d</t>
+          <t>99c04fd</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>desarrollo ota deito credito</t>
+          <t>cambios .env si se subira al git no se ignorara</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>412b529</t>
+          <t>91897d7</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6223,12 +6223,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Commmit : Solucion de Error Devolucion Venta / mejora de reportes de Venta Gris</t>
+          <t>configuraicion develop .env, configuracion axios api, confg de services apis externas -&gt; servidor de prueva para hacer lo minimos cambios</t>
         </is>
       </c>
     </row>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7cd7d32</t>
+          <t>67b9aa5</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Api Compra Out y Diseño Estructura Guias Interfaz Quasar y Dirver</t>
+          <t>hacer cambios reporte cuentas por cobrar al generar reporte scroll se posiciona en tabla, añadir kardex a select reportes comiezo de git con ramas</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>a449083</t>
+          <t>62dbbab</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6273,12 +6273,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Api out ventas finalzida con los parametros optimizados</t>
+          <t>correcciones comercial</t>
         </is>
       </c>
     </row>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>b451274</t>
+          <t>3e0caaa</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6298,12 +6298,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>compra creditos</t>
+          <t>cambios comercial -NO SE TERMINO COMERCIAL- -se hizo cambios menus falta terminar reportes-</t>
         </is>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>dd40fa0</t>
+          <t>3a1565d</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -6323,12 +6323,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>m:correcciones comercial</t>
+          <t>desarrollo ota deito credito</t>
         </is>
       </c>
     </row>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>da37a18</t>
+          <t>412b529</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -6348,12 +6348,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Cambios Sistema correcciones primera interacion</t>
+          <t>Commmit : Solucion de Error Devolucion Venta / mejora de reportes de Venta Gris</t>
         </is>
       </c>
     </row>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>f5c4d75</t>
+          <t>7cd7d32</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6373,12 +6373,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Cambios interfaz</t>
+          <t>Api Compra Out y Diseño Estructura Guias Interfaz Quasar y Dirver</t>
         </is>
       </c>
     </row>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>283842d</t>
+          <t>a449083</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6398,12 +6398,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Eliminar vendor del repo y agregarlo al .gitignore</t>
+          <t>Api out ventas finalzida con los parametros optimizados</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>3501c4e</t>
+          <t>b451274</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>first commit</t>
+          <t>compra creditos</t>
         </is>
       </c>
     </row>
@@ -6438,20 +6438,145 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
+          <t>dd40fa0</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>m:correcciones comercial</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>da37a18</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Cambios Sistema correcciones primera interacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>f5c4d75</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Cambios interfaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>283842d</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Eliminar vendor del repo y agregarlo al .gitignore</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>3501c4e</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>aycaRichard12</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>first commit</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
           <t>9409db8</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>Ricahrd Ayca</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
+      <c r="D246" t="inlineStr">
         <is>
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>Initialize the project 🚀</t>
         </is>
